--- a/data/outputs/excel/ai_suspect_report.xlsx
+++ b/data/outputs/excel/ai_suspect_report.xlsx
@@ -514,27 +514,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kế hoạch dạy học: "Chiếc dù kỳ diệu" 1. Mục tiêu bài học: Học sinh hiểu được nguyên lý giảm va chạm, bảo vệ vật thể. Rèn kỹ năng tư duy logic, giải quyết vấn đề. Rèn kỹ năng làm việc nhóm, thử nghiệm và cải tiến sản phẩm. Phát triển kỹ năng thuyết trình, diễn giải ý tưởng. 2. Các hoạt động chính 2.1. Khởi động Giáo viên đặt vấn đề bằng một số câu hỏi gợi mở: Nếu thả một viên phấn từ tầng 2 xuống sân, điều gì sẽ xảy ra? Làm thế nào để viên phấn không bị vỡ? Học sinh suy nghĩ, đưa ra các dự đoán và chia sẻ ý tưởng. 2.2. Thực hành Học sinh sử dụng các công cụ đơn giản, hãy tạo ra thiết bị giúp viên phấn không bị vỡ khi thả từ độ cao 3m.” Giáo viên tổ chức cho học sinh thảo luận nhóm lên ý tưởng, vẽ phác thảo thiết bị. * Gợi ý một số câu hỏi mà giáo viên có thể sử dụng giúp học sinh tìm ý tưởng làm sản phẩm. + Nếu thả rơi phiên phấn từ độ cao 3m mà không có gì bảo vệ, chuyện gì sẽ xảy ra? Tại sao? + Theo em, điều gì khiến viên phấn bị vỡ khi rơi xuống đất? + Làm sao để giảm lực tác động lên viên phấn? + Làm cách nào để giảm tốc độ rơi của viên phấn? Các nhóm thống nhất ý tưởng, hoàn thiện bản vẽ phát thảo. Lựa chọn vật liệu, dụng cụ và tiến hành chế tạo sản phẩm “Chiếc dù kỳ diệu”. Đại diện các nhóm giới thiệu sản phẩm đã chế tạo. Các nhóm thử nghiệm lần 1. Thả thử từ độ cao 3m (có thể thả từ cầu thang hoặc ghế cao). Ghi nhận kết quả: Viên phấn còn nguyên/ vỡ nhẹ/ vỡ nát. Trong quá trình các nhóm chế tạo và thử nghiệm, giáo viên có thể đặt một số câu hỏi gợi mở: + Dù của nhóm em đang mở ra tốt chưa? Có chỗ nào bị gấp hoặc co lại không? + Khi thả xuống, viên phấn rơi nhanh hay chậm? Tại sao? + Dù có giữ được phương thẳng đứng hay bị nghiêng? Điều này ảnh hưởng gì đến viên phấn? + Nếu dù của nhóm bị rơi nhanh, nhóm sẽ điều chỉnh gì? + Sợi dây nối dù và viên phấn dài ngắn thế nào thì hợp lý? + Viên phấn có bị va đập vào đất mạnh không? Tại sao? Câu hỏi sau thí nghiệm (phân tích &amp;amp; cải tiến) + Dù nilon của nhóm em hoạt động hiệu quả chưa? Vì sao? + Viên phấn có bị vỡ hay sứt mẻ không? Nguyên nhân do đâu? + Phần nào của thiết bị hoạt động tốt nhất? Phần nào cần cải tiến? + Nếu được làm lại, nhóm em sẽ thay đổi điều gì? (kích thước dù, số dây, hình dáng dù, ...) + Ngoài dù, còn cách nào khác để bảo vệ viên phấn khi rơi không? + Bài học nhóm em rút ra từ thí nghiệm này là gì? Kết luận: “Qua hoạt động hôm nay, các em không chỉ tìm cách bảo vệ một viên phấn, mà còn học được cách tư duy thiết kế, xử lý vấn đề thực tế và sáng tạo ra giải pháp từ những vật liệu đơn giản nhất. Đó chính là kỹ năng mà bất kỳ người kỹ sư, nhà phát minh hay người giải quyết vấn đề nào cũng cần có.”</t>
+          <t>Khái niệm “Học tập qua trải nghiệm”: Là một phương pháp học tập trong đó học sinh chủ động tham gia vào quá trình học thông qua việc trải nghiệm thực tế, thực hành, khám phá và phản tư (suy ngẫm lại những gì đã làm và học được). Thay vì chỉ tiếp thu kiến thức qua sách vở hay bài giảng, các em học sinh được tự mình thực hiện, thử nghiệm và rút ra bài học từ chính trải nghiệm cá nhân. Đây là cách học giúp kiến thức trở nên sống động, dễ hiểu và khó quên hơn. Tác động của học tập qua trải nghiệm đến học sinh: Tăng hứng thú và động lực học tập: Khi học sinh được "làm thật", các em cảm thấy việc học trở nên gần gũi, thú vị hơn, từ đó chủ động hơn trong quá trình học. Phát triển tư duy phản biện và giải quyết vấn đề: Trải nghiệm thực tế thường đi kèm với những tình huống phức tạp, đòi hỏi học sinh phải quan sát, phân tích, đưa ra quyết định và thử nghiệm các giải pháp khác nhau. Nâng cao kỹ năng hợp tác và giao tiếp: Nhiều hoạt động trải nghiệm yêu cầu học sinh làm việc theo nhóm, từ đó các em học cách lắng nghe, trao đổi và làm việc hiệu quả với người khác. Liên hệ kiến thức với thực tế: Học sinh hiểu rõ hơn về ý nghĩa của những gì mình học, vì các kiến thức được ứng dụng trực tiếp trong các tình huống cụ thể, thực tế. Dẫn chứng ví dụ minh hoạ: Môn Khoa học – Lớp 4 (Bộ sách Chân trời sáng tạo) Bài 8. Nguồn sáng và sự truyền ánh sáng (trang 34). Hoạt động: Tổ chức cho học sinh lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Khi tìm hiểu về nguồn sáng, giáo viên có thể tổ chức hoạt động trải nghiệm cho học sinh tự lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Mục tiêu của hoạt động: + Giúp học sinh nhận biết được khái niệm nguồn sáng và hiểu được cách ánh sáng được tạo ra từ nguồn điện. + Củng cố kiến thức về sơ đồ mạch điện đơn giản và nguyên lý hoạt động của một số thiết bị điện đơn giản trong thực tiễn. + Phát triển năng lực tự học, hợp tác nhóm và vận dụng kiến thức vào thực tiễn. Hình thức tổ chức: Giáo viên chia lớp thành các nhóm nhỏ. Mỗi nhóm được phát dụng cụ: pin, dây điện, bóng đèn nhỏ, công tắc, băng dính. Học sinh tự lắp ráp mạch điện theo sơ đồ đơn giản để làm thành một chiếc đèn pin mini. Sau khi lắp ráp xong, các nhóm thử bật/tắt đèn, quan sát ánh sáng phát ra và thảo luận: + Nguồn sáng trong mạch điện này là gì? + Ánh sáng truyền đi theo đường nào? + Nếu ngắt công tắc, chuyện gì xảy ra? Kết luận: Qua hoạt động trải nghiệm này, học sinh không chỉ hiểu rõ hơn về nguồn sáng và sự truyền ánh sáng mà còn biết cách ứng dụng kiến thức để tạo ra thiết bị đơn giản phục vụ cuộc sống. Đồng thời, giúp các em rèn kỹ năng thực hành, làm việc nhóm và tư duy khoa học, khắc sâu kiến thức, vận dụng có hiệu quả các kiến thức đã học vào thực tiễn cuộc sống.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3450429352068696</v>
+        <v>0.3506493506493506</v>
       </c>
       <c r="E2" t="n">
-        <v>0.276396925056045</v>
+        <v>0.3303170701219116</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>chatgpt_5_1_v1_Q3</t>
+          <t>gemini2_5_pro_v1_Q1</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.3749093546047861</v>
+        <v>0.3149741824440619</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -542,27 +542,27 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3749093546047861</v>
+        <v>0.3149741824440619</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>The response shows a highly organized structure with clear headings, numbered sections, and bullet points, which is characteristic of AI-generated templates. The language contains several generic, positive‑bias phrases such as "Rèn kỹ năng tư duy logic, giải quyết vấn đề" and "Kết luận: …" that are commonly used by AI to signal completeness. The stylistic uniformity—consistent sentence length, repeated use of the same phrasing patterns, and a formal register—suggests a template rather than a personalized student voice. Additionally, the moderate similarity scores (ai_similarity_score 0.35, peer_similarity_score 0.37) indicate that while the content is not identical to known AI or peer answers, it shares enough common structure and wording to raise suspicion. The symbolic_score of 1.00 further reflects a high density of formatting symbols (numbers, bullets, colons), a hallmark of AI‑generated outlines. Overall, these factors point to a moderate to high likelihood that the answer was produced by a generative AI template.</t>
+          <t>The response exhibits several AI‑like characteristics. It follows a rigid structure with a clear introduction, body and conclusion, and the transition phrases feel formulaic. Frequent use of generic positive wording such as "kết quả thực tế" and “được thực hành” aligns with common AI templates. The sentence lengths and vocabulary are relatively uniform, lacking the natural variation seen in human writing. Moreover, the concrete example of the science activity is a classic, textbook‑style illustration that many students tend to replicate, which is reflected in the peer similarity score. While not entirely machine‑generated, these patterns suggest a strong AI influence, justifying a score of about 0.68.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Kế hoạch dạy học: "Chiếc dù kỳ diệu" 1. Mục tiêu bài học: Học sinh hiểu được nguyên lý giảm va chạm, bảo vệ vật thể. Rèn kỹ năng tư duy logic, giải quyết vấn đề. Rèn kỹ năng làm việc nhóm, thử nghiệm và cải tiến sản phẩm. Phát triển kỹ năng thuyết trình, diễn giải ý tưởng. 2. Các hoạt động chính 2.1. Khởi động Giáo viên đặt vấn đề bằng một số câu hỏi gợi mở: Nếu thả một viên phấn từ tầng 2 xuống sân, điều gì sẽ xảy ra? Làm thế nào để viên phấn không bị vỡ? Học sinh suy nghĩ, đưa ra các dự đoán và chia sẻ ý tưởng. 2.2. Thực hành Học sinh sử dụng các công cụ đơn giản, hãy tạo ra thiết bị giúp viên phấn không bị vỡ khi thả từ độ cao 3m.” Giáo viên tổ chức cho học sinh thảo luận nhóm lên ý tưởng, vẽ phác thảo thiết bị. * Gợi ý một số câu hỏi mà giáo viên có thể sử dụng giúp học sinh tìm ý tưởng làm sản phẩm. + Nếu thả rơi phiên phấn từ độ cao 3m mà không có gì bảo vệ, chuyện gì sẽ xảy ra? Tại sao? + Theo em, điều gì khiến viên phấn bị vỡ khi rơi xuống đất? + Làm sao để giảm lực tác động lên viên phấn? + Làm cách nào để giảm tốc độ rơi của viên phấn? Các nhóm thống nhất ý tưởng, hoàn thiện bản vẽ phát thảo. Lựa chọn vật liệu, dụng cụ và tiến hành chế tạo sản phẩm “Chiếc dù kỳ diệu”. Đại diện các nhóm giới thiệu sản phẩm đã chế tạo. Các nhóm thử nghiệm lần 1. Thả thử từ độ cao 3m (có thể thả từ cầu thang hoặc ghế cao). Ghi nhận kết quả: Viên phấn còn nguyên/ vỡ nhẹ/ vỡ nát. Trong quá trình các nhóm chế tạo và thử nghiệm, giáo viên có thể đặt một số câu hỏi gợi mở: + Dù của nhóm em đang mở ra tốt chưa? Có chỗ nào bị gấp hoặc co lại không? + Khi thả xuống, viên phấn rơi nhanh hay chậm? Tại sao? + Dù có giữ được phương thẳng đứng hay bị nghiêng? Điều này ảnh hưởng gì đến viên phấn? + Nếu dù của nhóm bị rơi nhanh, nhóm sẽ điều chỉnh gì? + Sợi dây nối dù và viên phấn dài ngắn thế nào thì hợp lý? + Viên phấn có bị va đập vào đất mạnh không? Tại sao? Câu hỏi sau thí nghiệm (phân tích &amp;amp; cải tiến) + Dù nilon của nhóm em hoạt động hiệu quả chưa? Vì sao? + Viên phấn có bị vỡ hay sứt mẻ không? Nguyên nhân do đâu? + Phần nào của thiết bị hoạt động tốt nhất? Phần nào cần cải tiến? + Nếu được làm lại, nhóm em sẽ thay đổi điều gì? (kích thước dù, số dây, hình dáng dù, ...) + Ngoài dù, còn cách nào khác để bảo vệ viên phấn khi rơi không? + Bài học nhóm em rút ra từ thí nghiệm này là gì? Kết luận: “Qua hoạt động hôm nay, các em không chỉ tìm cách bảo vệ một viên phấn, mà còn học được cách tư duy thiết kế, xử lý vấn đề thực tế và sáng tạo ra giải pháp từ những vật liệu đơn giản nhất. Đó chính là kỹ năng mà bất kỳ người kỹ sư, nhà phát minh hay người giải quyết vấn đề nào cũng cần có.”</t>
+          <t>Khái niệm “Học tập qua trải nghiệm”: Là một phương pháp học tập trong đó học sinh chủ động tham gia vào quá trình học thông qua việc trải nghiệm thực tế, thực hành, khám phá và phản tư (suy ngẫm lại những gì đã làm và học được). Thay vì chỉ tiếp thu kiến thức qua sách vở hay bài giảng, các em học sinh được tự mình thực hiện, thử nghiệm và rút ra bài học từ chính trải nghiệm cá nhân. Đây là cách học giúp kiến thức trở nên sống động, dễ hiểu và khó quên hơn. Tác động của học tập qua trải nghiệm đến học sinh: Tăng hứng thú và động lực học tập: Khi học sinh được "làm thật", các em cảm thấy việc học trở nên gần gũi, thú vị hơn, từ đó chủ động hơn trong quá trình học. Phát triển tư duy phản biện và giải quyết vấn đề: Trải nghiệm thực tế thường đi kèm với những tình huống phức tạp, đòi hỏi học sinh phải quan sát, phân tích, đưa ra quyết định và thử nghiệm các giải pháp khác nhau. Nâng cao kỹ năng hợp tác và giao tiếp: Nhiều hoạt động trải nghiệm yêu cầu học sinh làm việc theo nhóm, từ đó các em học cách lắng nghe, trao đổi và làm việc hiệu quả với người khác. Liên hệ kiến thức với thực tế: Học sinh hiểu rõ hơn về ý nghĩa của những gì mình học, vì các kiến thức được ứng dụng trực tiếp trong các tình huống cụ thể, thực tế. Dẫn chứng ví dụ minh hoạ: Môn Khoa học – Lớp 4 (Bộ sách Chân trời sáng tạo) Bài 8. Nguồn sáng và sự truyền ánh sáng (trang 34). Hoạt động: Tổ chức cho học sinh lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Khi tìm hiểu về nguồn sáng, giáo viên có thể tổ chức hoạt động trải nghiệm cho học sinh tự lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Mục tiêu của hoạt động: + Giúp học sinh nhận biết được khái niệm nguồn sáng và hiểu được cách ánh sáng được tạo ra từ nguồn điện. + Củng cố kiến thức về sơ đồ mạch điện đơn giản và nguyên lý hoạt động của một số thiết bị điện đơn giản trong thực tiễn. + Phát triển năng lực tự học, hợp tác nhóm và vận dụng kiến thức vào thực tiễn. Hình thức tổ chức: Giáo viên chia lớp thành các nhóm nhỏ. Mỗi nhóm được phát dụng cụ: pin, dây điện, bóng đèn nhỏ, công tắc, băng dính. Học sinh tự lắp ráp mạch điện theo sơ đồ đơn giản để làm thành một chiếc đèn pin mini. Sau khi lắp ráp xong, các nhóm thử bật/tắt đèn, quan sát ánh sáng phát ra và thảo luận: + Nguồn sáng trong mạch điện này là gì? + Ánh sáng truyền đi theo đường nào? + Nếu ngắt công tắc, chuyện gì xảy ra? Kết luận: Qua hoạt động trải nghiệm này, học sinh không chỉ hiểu rõ hơn về nguồn sáng và sự truyền ánh sáng mà còn biết cách ứng dụng kiến thức để tạo ra thiết bị đơn giản phục vụ cuộc sống. Đồng thời, giúp các em rèn kỹ năng thực hành, làm việc nhóm và tư duy khoa học, khắc sâu kiến thức, vận dụng có hiệu quả các kiến thức đã học vào thực tiễn cuộc sống.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Kế hoạch dạy học: "Chiếc dù kỳ diệu" 1. Mục tiêu bài học: Học sinh hiểu được nguyên lý giảm va chạm, bảo vệ vật thể. Rèn kỹ năng tư duy logic, giải quyết vấn đề. Rèn kỹ năng làm việc nhóm, thử nghiệm và cải tiến sản phẩm. Phát triển kỹ năng thuyết trình, diễn giải ý tưởng. 2. Các hoạt động chính 2.1. Khởi động Giáo viên đặt vấn đề bằng một số câu hỏi gợi mở: Nếu thả một viên phấn từ tầng 2 xuống sân, điều gì sẽ xảy ra? Làm thế nào để viên phấn không bị vỡ? Học sinh suy nghĩ, đưa ra các dự đoán và chia sẻ ý tưởng. 2.2. Thực hành Học sinh sử dụng các công cụ đơn giản, hãy tạo ra thiết bị giúp viên phấn không bị vỡ khi thả từ độ cao 3m.” Giáo viên tổ chức cho học sinh thảo luận nhóm lên ý tưởng, vẽ phác thảo thiết bị. * Gợi ý một số câu hỏi mà giáo viên có thể sử dụng giúp học sinh tìm ý tưởng làm sản phẩm. + Nếu thả rơi phiên phấn từ độ cao 3m mà không có gì bảo vệ, chuyện gì sẽ xảy ra? Tại sao? + Theo em, điều gì khiến viên phấn bị vỡ khi rơi xuống đất? + Làm sao để giảm lực tác động lên viên phấn? + Làm cách nào để giảm tốc độ rơi của viên phấn? Các nhóm thống nhất ý tưởng, hoàn thiện bản vẽ phát thảo. Lựa chọn vật liệu, dụng cụ và tiến hành chế tạo sản phẩm “Chiếc dù kỳ diệu”. Đại diện các nhóm giới thiệu sản phẩm đã chế tạo. Các nhóm thử nghiệm lần 1. Thả thử từ độ cao 3m (có thể thả từ cầu thang hoặc ghế cao). Ghi nhận kết quả: Viên phấn còn nguyên/ vỡ nhẹ/ vỡ nát. Trong quá trình các nhóm chế tạo và thử nghiệm, giáo viên có thể đặt một số câu hỏi gợi mở: + Dù của nhóm em đang mở ra tốt chưa? Có chỗ nào bị gấp hoặc co lại không? + Khi thả xuống, viên phấn rơi nhanh hay chậm? Tại sao? + Dù có giữ được phương thẳng đứng hay bị nghiêng? Điều này ảnh hưởng gì đến viên phấn? + Nếu dù của nhóm bị rơi nhanh, nhóm sẽ điều chỉnh gì? + Sợi dây nối dù và viên phấn dài ngắn thế nào thì hợp lý? + Viên phấn có bị va đập vào đất mạnh không? Tại sao? Câu hỏi sau thí nghiệm (phân tích &amp;amp; cải tiến) + Dù nilon của nhóm em hoạt động hiệu quả chưa? Vì sao? + Viên phấn có bị vỡ hay sứt mẻ không? Nguyên nhân do đâu? + Phần nào của thiết bị hoạt động tốt nhất? Phần nào cần cải tiến? + Nếu được làm lại, nhóm em sẽ thay đổi điều gì? (kích thước dù, số dây, hình dáng dù, ...) + Ngoài dù, còn cách nào khác để bảo vệ viên phấn khi rơi không? + Bài học nhóm em rút ra từ thí nghiệm này là gì? Kết luận: “Qua hoạt động hôm nay, các em không chỉ tìm cách bảo vệ một viên phấn, mà còn học được cách tư duy thiết kế, xử lý vấn đề thực tế và sáng tạo ra giải pháp từ những vật liệu đơn giản nhất. Đó chính là kỹ năng mà bất kỳ người kỹ sư, nhà phát minh hay người giải quyết vấn đề nào cũng cần có.”</t>
+          <t>Khái niệm “Học tập qua trải nghiệm”: Là một phương pháp học tập trong đó học sinh chủ động tham gia vào quá trình học thông qua việc trải nghiệm thực tế, thực hành, khám phá và phản tư (suy ngẫm lại những gì đã làm và học được). Thay vì chỉ tiếp thu kiến thức qua sách vở hay bài giảng, các em học sinh được tự mình thực hiện, thử nghiệm và rút ra bài học từ chính trải nghiệm cá nhân. Đây là cách học giúp kiến thức trở nên sống động, dễ hiểu và khó quên hơn. Tác động của học tập qua trải nghiệm đến học sinh: Tăng hứng thú và động lực học tập: Khi học sinh được "làm thật", các em cảm thấy việc học trở nên gần gũi, thú vị hơn, từ đó chủ động hơn trong quá trình học. Phát triển tư duy phản biện và giải quyết vấn đề: Trải nghiệm thực tế thường đi kèm với những tình huống phức tạp, đòi hỏi học sinh phải quan sát, phân tích, đưa ra quyết định và thử nghiệm các giải pháp khác nhau. Nâng cao kỹ năng hợp tác và giao tiếp: Nhiều hoạt động trải nghiệm yêu cầu học sinh làm việc theo nhóm, từ đó các em học cách lắng nghe, trao đổi và làm việc hiệu quả với người khác. Liên hệ kiến thức với thực tế: Học sinh hiểu rõ hơn về ý nghĩa của những gì mình học, vì các kiến thức được ứng dụng trực tiếp trong các tình huống cụ thể, thực tế. Dẫn chứng ví dụ minh hoạ: Môn Khoa học – Lớp 4 (Bộ sách Chân trời sáng tạo) Bài 8. Nguồn sáng và sự truyền ánh sáng (trang 34). Hoạt động: Tổ chức cho học sinh lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Khi tìm hiểu về nguồn sáng, giáo viên có thể tổ chức hoạt động trải nghiệm cho học sinh tự lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Mục tiêu của hoạt động: + Giúp học sinh nhận biết được khái niệm nguồn sáng và hiểu được cách ánh sáng được tạo ra từ nguồn điện. + Củng cố kiến thức về sơ đồ mạch điện đơn giản và nguyên lý hoạt động của một số thiết bị điện đơn giản trong thực tiễn. + Phát triển năng lực tự học, hợp tác nhóm và vận dụng kiến thức vào thực tiễn. Hình thức tổ chức: Giáo viên chia lớp thành các nhóm nhỏ. Mỗi nhóm được phát dụng cụ: pin, dây điện, bóng đèn nhỏ, công tắc, băng dính. Học sinh tự lắp ráp mạch điện theo sơ đồ đơn giản để làm thành một chiếc đèn pin mini. Sau khi lắp ráp xong, các nhóm thử bật/tắt đèn, quan sát ánh sáng phát ra và thảo luận: + Nguồn sáng trong mạch điện này là gì? + Ánh sáng truyền đi theo đường nào? + Nếu ngắt công tắc, chuyện gì xảy ra? Kết luận: Qua hoạt động trải nghiệm này, học sinh không chỉ hiểu rõ hơn về nguồn sáng và sự truyền ánh sáng mà còn biết cách ứng dụng kiến thức để tạo ra thiết bị đơn giản phục vụ cuộc sống. Đồng thời, giúp các em rèn kỹ năng thực hành, làm việc nhóm và tư duy khoa học, khắc sâu kiến thức, vận dụng có hiệu quả các kiến thức đã học vào thực tiễn cuộc sống.</t>
         </is>
       </c>
     </row>
@@ -574,27 +574,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Khái niệm “Học tập qua trải nghiệm”: Là một phương pháp học tập trong đó học sinh chủ động tham gia vào quá trình học thông qua việc trải nghiệm thực tế, thực hành, khám phá và phản tư (suy ngẫm lại những gì đã làm và học được). Thay vì chỉ tiếp thu kiến thức qua sách vở hay bài giảng, các em học sinh được tự mình thực hiện, thử nghiệm và rút ra bài học từ chính trải nghiệm cá nhân. Đây là cách học giúp kiến thức trở nên sống động, dễ hiểu và khó quên hơn. Tác động của học tập qua trải nghiệm đến học sinh: Tăng hứng thú và động lực học tập: Khi học sinh được "làm thật", các em cảm thấy việc học trở nên gần gũi, thú vị hơn, từ đó chủ động hơn trong quá trình học. Phát triển tư duy phản biện và giải quyết vấn đề: Trải nghiệm thực tế thường đi kèm với những tình huống phức tạp, đòi hỏi học sinh phải quan sát, phân tích, đưa ra quyết định và thử nghiệm các giải pháp khác nhau. Nâng cao kỹ năng hợp tác và giao tiếp: Nhiều hoạt động trải nghiệm yêu cầu học sinh làm việc theo nhóm, từ đó các em học cách lắng nghe, trao đổi và làm việc hiệu quả với người khác. Liên hệ kiến thức với thực tế: Học sinh hiểu rõ hơn về ý nghĩa của những gì mình học, vì các kiến thức được ứng dụng trực tiếp trong các tình huống cụ thể, thực tế. Dẫn chứng ví dụ minh hoạ: Môn Khoa học – Lớp 4 (Bộ sách Chân trời sáng tạo) Bài 8. Nguồn sáng và sự truyền ánh sáng (trang 34). Hoạt động: Tổ chức cho học sinh lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Khi tìm hiểu về nguồn sáng, giáo viên có thể tổ chức hoạt động trải nghiệm cho học sinh tự lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Mục tiêu của hoạt động: + Giúp học sinh nhận biết được khái niệm nguồn sáng và hiểu được cách ánh sáng được tạo ra từ nguồn điện. + Củng cố kiến thức về sơ đồ mạch điện đơn giản và nguyên lý hoạt động của một số thiết bị điện đơn giản trong thực tiễn. + Phát triển năng lực tự học, hợp tác nhóm và vận dụng kiến thức vào thực tiễn. Hình thức tổ chức: Giáo viên chia lớp thành các nhóm nhỏ. Mỗi nhóm được phát dụng cụ: pin, dây điện, bóng đèn nhỏ, công tắc, băng dính. Học sinh tự lắp ráp mạch điện theo sơ đồ đơn giản để làm thành một chiếc đèn pin mini. Sau khi lắp ráp xong, các nhóm thử bật/tắt đèn, quan sát ánh sáng phát ra và thảo luận: + Nguồn sáng trong mạch điện này là gì? + Ánh sáng truyền đi theo đường nào? + Nếu ngắt công tắc, chuyện gì xảy ra? Kết luận: Qua hoạt động trải nghiệm này, học sinh không chỉ hiểu rõ hơn về nguồn sáng và sự truyền ánh sáng mà còn biết cách ứng dụng kiến thức để tạo ra thiết bị đơn giản phục vụ cuộc sống. Đồng thời, giúp các em rèn kỹ năng thực hành, làm việc nhóm và tư duy khoa học, khắc sâu kiến thức, vận dụng có hiệu quả các kiến thức đã học vào thực tiễn cuộc sống.</t>
+          <t>Kế hoạch dạy học: "Chiếc dù kỳ diệu" 1. Mục tiêu bài học: Học sinh hiểu được nguyên lý giảm va chạm, bảo vệ vật thể. Rèn kỹ năng tư duy logic, giải quyết vấn đề. Rèn kỹ năng làm việc nhóm, thử nghiệm và cải tiến sản phẩm. Phát triển kỹ năng thuyết trình, diễn giải ý tưởng. 2. Các hoạt động chính 2.1. Khởi động Giáo viên đặt vấn đề bằng một số câu hỏi gợi mở: Nếu thả một viên phấn từ tầng 2 xuống sân, điều gì sẽ xảy ra? Làm thế nào để viên phấn không bị vỡ? Học sinh suy nghĩ, đưa ra các dự đoán và chia sẻ ý tưởng. 2.2. Thực hành Học sinh sử dụng các công cụ đơn giản, hãy tạo ra thiết bị giúp viên phấn không bị vỡ khi thả từ độ cao 3m.” Giáo viên tổ chức cho học sinh thảo luận nhóm lên ý tưởng, vẽ phác thảo thiết bị. * Gợi ý một số câu hỏi mà giáo viên có thể sử dụng giúp học sinh tìm ý tưởng làm sản phẩm. + Nếu thả rơi phiên phấn từ độ cao 3m mà không có gì bảo vệ, chuyện gì sẽ xảy ra? Tại sao? + Theo em, điều gì khiến viên phấn bị vỡ khi rơi xuống đất? + Làm sao để giảm lực tác động lên viên phấn? + Làm cách nào để giảm tốc độ rơi của viên phấn? Các nhóm thống nhất ý tưởng, hoàn thiện bản vẽ phát thảo. Lựa chọn vật liệu, dụng cụ và tiến hành chế tạo sản phẩm “Chiếc dù kỳ diệu”. Đại diện các nhóm giới thiệu sản phẩm đã chế tạo. Các nhóm thử nghiệm lần 1. Thả thử từ độ cao 3m (có thể thả từ cầu thang hoặc ghế cao). Ghi nhận kết quả: Viên phấn còn nguyên/ vỡ nhẹ/ vỡ nát. Trong quá trình các nhóm chế tạo và thử nghiệm, giáo viên có thể đặt một số câu hỏi gợi mở: + Dù của nhóm em đang mở ra tốt chưa? Có chỗ nào bị gấp hoặc co lại không? + Khi thả xuống, viên phấn rơi nhanh hay chậm? Tại sao? + Dù có giữ được phương thẳng đứng hay bị nghiêng? Điều này ảnh hưởng gì đến viên phấn? + Nếu dù của nhóm bị rơi nhanh, nhóm sẽ điều chỉnh gì? + Sợi dây nối dù và viên phấn dài ngắn thế nào thì hợp lý? + Viên phấn có bị va đập vào đất mạnh không? Tại sao? Câu hỏi sau thí nghiệm (phân tích &amp;amp; cải tiến) + Dù nilon của nhóm em hoạt động hiệu quả chưa? Vì sao? + Viên phấn có bị vỡ hay sứt mẻ không? Nguyên nhân do đâu? + Phần nào của thiết bị hoạt động tốt nhất? Phần nào cần cải tiến? + Nếu được làm lại, nhóm em sẽ thay đổi điều gì? (kích thước dù, số dây, hình dáng dù, ...) + Ngoài dù, còn cách nào khác để bảo vệ viên phấn khi rơi không? + Bài học nhóm em rút ra từ thí nghiệm này là gì? Kết luận: “Qua hoạt động hôm nay, các em không chỉ tìm cách bảo vệ một viên phấn, mà còn học được cách tư duy thiết kế, xử lý vấn đề thực tế và sáng tạo ra giải pháp từ những vật liệu đơn giản nhất. Đó chính là kỹ năng mà bất kỳ người kỹ sư, nhà phát minh hay người giải quyết vấn đề nào cũng cần có.”</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3506493506493506</v>
+        <v>0.3450429352068696</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3303170701219116</v>
+        <v>0.276396925056045</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>gemini2_5_pro_v1_Q1</t>
+          <t>chatgpt_5_1_v1_Q3</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3149741824440619</v>
+        <v>0.3749093546047861</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -602,27 +602,27 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.3149741824440619</v>
+        <v>0.3749093546047861</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>The response shows several AI‑style characteristics: a very clear three‑part structure (introduction, body, conclusion) that feels almost textbook‑like; frequent use of generic, positive phrasing such as "giúp kiến thức trở nên sống động" and "khắc sâu kiến thức"; a uniform sentence length and consistent vocabulary that lack the natural variation seen in human writing; and a highly templated example that mirrors common instructional content, which is also reflected in the moderate similarity scores (ai_similarity_score 0.35, peer_similarity_score 0.31). These factors together suggest a moderate likelihood that the answer was generated from an AI template rather than written entirely by a student.</t>
+          <t>The answer exhibits a very rigid, textbook‑like structure with clear headings (Kế hoạch dạy học, Các hoạt động chính, ...), repeated bullet points, and a conventional lesson‑plan format that is typical of AI‑generated templates. The language is uniformly formal and lacks stylistic variation—sentences are similar in length and word choice, which is another hallmark of AI output. The content itself is generic and aligns closely with common instructional examples, leading to a moderate similarity with other students' responses (peer_similarity_score 0.37) but a higher similarity to an AI model (ai_similarity_score 0.35). Additionally, the symbolic_score of 1.00 indicates a perfect match to known AI template patterns. Combined, these factors suggest a fairly high likelihood that the answer is a template‑style generation from an AI, hence a score of 0.68.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Khái niệm “Học tập qua trải nghiệm”: Là một phương pháp học tập trong đó học sinh chủ động tham gia vào quá trình học thông qua việc trải nghiệm thực tế, thực hành, khám phá và phản tư (suy ngẫm lại những gì đã làm và học được). Thay vì chỉ tiếp thu kiến thức qua sách vở hay bài giảng, các em học sinh được tự mình thực hiện, thử nghiệm và rút ra bài học từ chính trải nghiệm cá nhân. Đây là cách học giúp kiến thức trở nên sống động, dễ hiểu và khó quên hơn. Tác động của học tập qua trải nghiệm đến học sinh: Tăng hứng thú và động lực học tập: Khi học sinh được "làm thật", các em cảm thấy việc học trở nên gần gũi, thú vị hơn, từ đó chủ động hơn trong quá trình học. Phát triển tư duy phản biện và giải quyết vấn đề: Trải nghiệm thực tế thường đi kèm với những tình huống phức tạp, đòi hỏi học sinh phải quan sát, phân tích, đưa ra quyết định và thử nghiệm các giải pháp khác nhau. Nâng cao kỹ năng hợp tác và giao tiếp: Nhiều hoạt động trải nghiệm yêu cầu học sinh làm việc theo nhóm, từ đó các em học cách lắng nghe, trao đổi và làm việc hiệu quả với người khác. Liên hệ kiến thức với thực tế: Học sinh hiểu rõ hơn về ý nghĩa của những gì mình học, vì các kiến thức được ứng dụng trực tiếp trong các tình huống cụ thể, thực tế. Dẫn chứng ví dụ minh hoạ: Môn Khoa học – Lớp 4 (Bộ sách Chân trời sáng tạo) Bài 8. Nguồn sáng và sự truyền ánh sáng (trang 34). Hoạt động: Tổ chức cho học sinh lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Khi tìm hiểu về nguồn sáng, giáo viên có thể tổ chức hoạt động trải nghiệm cho học sinh tự lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Mục tiêu của hoạt động: + Giúp học sinh nhận biết được khái niệm nguồn sáng và hiểu được cách ánh sáng được tạo ra từ nguồn điện. + Củng cố kiến thức về sơ đồ mạch điện đơn giản và nguyên lý hoạt động của một số thiết bị điện đơn giản trong thực tiễn. + Phát triển năng lực tự học, hợp tác nhóm và vận dụng kiến thức vào thực tiễn. Hình thức tổ chức: Giáo viên chia lớp thành các nhóm nhỏ. Mỗi nhóm được phát dụng cụ: pin, dây điện, bóng đèn nhỏ, công tắc, băng dính. Học sinh tự lắp ráp mạch điện theo sơ đồ đơn giản để làm thành một chiếc đèn pin mini. Sau khi lắp ráp xong, các nhóm thử bật/tắt đèn, quan sát ánh sáng phát ra và thảo luận: + Nguồn sáng trong mạch điện này là gì? + Ánh sáng truyền đi theo đường nào? + Nếu ngắt công tắc, chuyện gì xảy ra? Kết luận: Qua hoạt động trải nghiệm này, học sinh không chỉ hiểu rõ hơn về nguồn sáng và sự truyền ánh sáng mà còn biết cách ứng dụng kiến thức để tạo ra thiết bị đơn giản phục vụ cuộc sống. Đồng thời, giúp các em rèn kỹ năng thực hành, làm việc nhóm và tư duy khoa học, khắc sâu kiến thức, vận dụng có hiệu quả các kiến thức đã học vào thực tiễn cuộc sống.</t>
+          <t>Kế hoạch dạy học: "Chiếc dù kỳ diệu" 1. Mục tiêu bài học: Học sinh hiểu được nguyên lý giảm va chạm, bảo vệ vật thể. Rèn kỹ năng tư duy logic, giải quyết vấn đề. Rèn kỹ năng làm việc nhóm, thử nghiệm và cải tiến sản phẩm. Phát triển kỹ năng thuyết trình, diễn giải ý tưởng. 2. Các hoạt động chính 2.1. Khởi động Giáo viên đặt vấn đề bằng một số câu hỏi gợi mở: Nếu thả một viên phấn từ tầng 2 xuống sân, điều gì sẽ xảy ra? Làm thế nào để viên phấn không bị vỡ? Học sinh suy nghĩ, đưa ra các dự đoán và chia sẻ ý tưởng. 2.2. Thực hành Học sinh sử dụng các công cụ đơn giản, hãy tạo ra thiết bị giúp viên phấn không bị vỡ khi thả từ độ cao 3m.” Giáo viên tổ chức cho học sinh thảo luận nhóm lên ý tưởng, vẽ phác thảo thiết bị. * Gợi ý một số câu hỏi mà giáo viên có thể sử dụng giúp học sinh tìm ý tưởng làm sản phẩm. + Nếu thả rơi phiên phấn từ độ cao 3m mà không có gì bảo vệ, chuyện gì sẽ xảy ra? Tại sao? + Theo em, điều gì khiến viên phấn bị vỡ khi rơi xuống đất? + Làm sao để giảm lực tác động lên viên phấn? + Làm cách nào để giảm tốc độ rơi của viên phấn? Các nhóm thống nhất ý tưởng, hoàn thiện bản vẽ phát thảo. Lựa chọn vật liệu, dụng cụ và tiến hành chế tạo sản phẩm “Chiếc dù kỳ diệu”. Đại diện các nhóm giới thiệu sản phẩm đã chế tạo. Các nhóm thử nghiệm lần 1. Thả thử từ độ cao 3m (có thể thả từ cầu thang hoặc ghế cao). Ghi nhận kết quả: Viên phấn còn nguyên/ vỡ nhẹ/ vỡ nát. Trong quá trình các nhóm chế tạo và thử nghiệm, giáo viên có thể đặt một số câu hỏi gợi mở: + Dù của nhóm em đang mở ra tốt chưa? Có chỗ nào bị gấp hoặc co lại không? + Khi thả xuống, viên phấn rơi nhanh hay chậm? Tại sao? + Dù có giữ được phương thẳng đứng hay bị nghiêng? Điều này ảnh hưởng gì đến viên phấn? + Nếu dù của nhóm bị rơi nhanh, nhóm sẽ điều chỉnh gì? + Sợi dây nối dù và viên phấn dài ngắn thế nào thì hợp lý? + Viên phấn có bị va đập vào đất mạnh không? Tại sao? Câu hỏi sau thí nghiệm (phân tích &amp;amp; cải tiến) + Dù nilon của nhóm em hoạt động hiệu quả chưa? Vì sao? + Viên phấn có bị vỡ hay sứt mẻ không? Nguyên nhân do đâu? + Phần nào của thiết bị hoạt động tốt nhất? Phần nào cần cải tiến? + Nếu được làm lại, nhóm em sẽ thay đổi điều gì? (kích thước dù, số dây, hình dáng dù, ...) + Ngoài dù, còn cách nào khác để bảo vệ viên phấn khi rơi không? + Bài học nhóm em rút ra từ thí nghiệm này là gì? Kết luận: “Qua hoạt động hôm nay, các em không chỉ tìm cách bảo vệ một viên phấn, mà còn học được cách tư duy thiết kế, xử lý vấn đề thực tế và sáng tạo ra giải pháp từ những vật liệu đơn giản nhất. Đó chính là kỹ năng mà bất kỳ người kỹ sư, nhà phát minh hay người giải quyết vấn đề nào cũng cần có.”</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Khái niệm “Học tập qua trải nghiệm”: Là một phương pháp học tập trong đó học sinh chủ động tham gia vào quá trình học thông qua việc trải nghiệm thực tế, thực hành, khám phá và phản tư (suy ngẫm lại những gì đã làm và học được). Thay vì chỉ tiếp thu kiến thức qua sách vở hay bài giảng, các em học sinh được tự mình thực hiện, thử nghiệm và rút ra bài học từ chính trải nghiệm cá nhân. Đây là cách học giúp kiến thức trở nên sống động, dễ hiểu và khó quên hơn. Tác động của học tập qua trải nghiệm đến học sinh: Tăng hứng thú và động lực học tập: Khi học sinh được "làm thật", các em cảm thấy việc học trở nên gần gũi, thú vị hơn, từ đó chủ động hơn trong quá trình học. Phát triển tư duy phản biện và giải quyết vấn đề: Trải nghiệm thực tế thường đi kèm với những tình huống phức tạp, đòi hỏi học sinh phải quan sát, phân tích, đưa ra quyết định và thử nghiệm các giải pháp khác nhau. Nâng cao kỹ năng hợp tác và giao tiếp: Nhiều hoạt động trải nghiệm yêu cầu học sinh làm việc theo nhóm, từ đó các em học cách lắng nghe, trao đổi và làm việc hiệu quả với người khác. Liên hệ kiến thức với thực tế: Học sinh hiểu rõ hơn về ý nghĩa của những gì mình học, vì các kiến thức được ứng dụng trực tiếp trong các tình huống cụ thể, thực tế. Dẫn chứng ví dụ minh hoạ: Môn Khoa học – Lớp 4 (Bộ sách Chân trời sáng tạo) Bài 8. Nguồn sáng và sự truyền ánh sáng (trang 34). Hoạt động: Tổ chức cho học sinh lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Khi tìm hiểu về nguồn sáng, giáo viên có thể tổ chức hoạt động trải nghiệm cho học sinh tự lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Mục tiêu của hoạt động: + Giúp học sinh nhận biết được khái niệm nguồn sáng và hiểu được cách ánh sáng được tạo ra từ nguồn điện. + Củng cố kiến thức về sơ đồ mạch điện đơn giản và nguyên lý hoạt động của một số thiết bị điện đơn giản trong thực tiễn. + Phát triển năng lực tự học, hợp tác nhóm và vận dụng kiến thức vào thực tiễn. Hình thức tổ chức: Giáo viên chia lớp thành các nhóm nhỏ. Mỗi nhóm được phát dụng cụ: pin, dây điện, bóng đèn nhỏ, công tắc, băng dính. Học sinh tự lắp ráp mạch điện theo sơ đồ đơn giản để làm thành một chiếc đèn pin mini. Sau khi lắp ráp xong, các nhóm thử bật/tắt đèn, quan sát ánh sáng phát ra và thảo luận: + Nguồn sáng trong mạch điện này là gì? + Ánh sáng truyền đi theo đường nào? + Nếu ngắt công tắc, chuyện gì xảy ra? Kết luận: Qua hoạt động trải nghiệm này, học sinh không chỉ hiểu rõ hơn về nguồn sáng và sự truyền ánh sáng mà còn biết cách ứng dụng kiến thức để tạo ra thiết bị đơn giản phục vụ cuộc sống. Đồng thời, giúp các em rèn kỹ năng thực hành, làm việc nhóm và tư duy khoa học, khắc sâu kiến thức, vận dụng có hiệu quả các kiến thức đã học vào thực tiễn cuộc sống.</t>
+          <t>Kế hoạch dạy học: "Chiếc dù kỳ diệu" 1. Mục tiêu bài học: Học sinh hiểu được nguyên lý giảm va chạm, bảo vệ vật thể. Rèn kỹ năng tư duy logic, giải quyết vấn đề. Rèn kỹ năng làm việc nhóm, thử nghiệm và cải tiến sản phẩm. Phát triển kỹ năng thuyết trình, diễn giải ý tưởng. 2. Các hoạt động chính 2.1. Khởi động Giáo viên đặt vấn đề bằng một số câu hỏi gợi mở: Nếu thả một viên phấn từ tầng 2 xuống sân, điều gì sẽ xảy ra? Làm thế nào để viên phấn không bị vỡ? Học sinh suy nghĩ, đưa ra các dự đoán và chia sẻ ý tưởng. 2.2. Thực hành Học sinh sử dụng các công cụ đơn giản, hãy tạo ra thiết bị giúp viên phấn không bị vỡ khi thả từ độ cao 3m.” Giáo viên tổ chức cho học sinh thảo luận nhóm lên ý tưởng, vẽ phác thảo thiết bị. * Gợi ý một số câu hỏi mà giáo viên có thể sử dụng giúp học sinh tìm ý tưởng làm sản phẩm. + Nếu thả rơi phiên phấn từ độ cao 3m mà không có gì bảo vệ, chuyện gì sẽ xảy ra? Tại sao? + Theo em, điều gì khiến viên phấn bị vỡ khi rơi xuống đất? + Làm sao để giảm lực tác động lên viên phấn? + Làm cách nào để giảm tốc độ rơi của viên phấn? Các nhóm thống nhất ý tưởng, hoàn thiện bản vẽ phát thảo. Lựa chọn vật liệu, dụng cụ và tiến hành chế tạo sản phẩm “Chiếc dù kỳ diệu”. Đại diện các nhóm giới thiệu sản phẩm đã chế tạo. Các nhóm thử nghiệm lần 1. Thả thử từ độ cao 3m (có thể thả từ cầu thang hoặc ghế cao). Ghi nhận kết quả: Viên phấn còn nguyên/ vỡ nhẹ/ vỡ nát. Trong quá trình các nhóm chế tạo và thử nghiệm, giáo viên có thể đặt một số câu hỏi gợi mở: + Dù của nhóm em đang mở ra tốt chưa? Có chỗ nào bị gấp hoặc co lại không? + Khi thả xuống, viên phấn rơi nhanh hay chậm? Tại sao? + Dù có giữ được phương thẳng đứng hay bị nghiêng? Điều này ảnh hưởng gì đến viên phấn? + Nếu dù của nhóm bị rơi nhanh, nhóm sẽ điều chỉnh gì? + Sợi dây nối dù và viên phấn dài ngắn thế nào thì hợp lý? + Viên phấn có bị va đập vào đất mạnh không? Tại sao? Câu hỏi sau thí nghiệm (phân tích &amp;amp; cải tiến) + Dù nilon của nhóm em hoạt động hiệu quả chưa? Vì sao? + Viên phấn có bị vỡ hay sứt mẻ không? Nguyên nhân do đâu? + Phần nào của thiết bị hoạt động tốt nhất? Phần nào cần cải tiến? + Nếu được làm lại, nhóm em sẽ thay đổi điều gì? (kích thước dù, số dây, hình dáng dù, ...) + Ngoài dù, còn cách nào khác để bảo vệ viên phấn khi rơi không? + Bài học nhóm em rút ra từ thí nghiệm này là gì? Kết luận: “Qua hoạt động hôm nay, các em không chỉ tìm cách bảo vệ một viên phấn, mà còn học được cách tư duy thiết kế, xử lý vấn đề thực tế và sáng tạo ra giải pháp từ những vật liệu đơn giản nhất. Đó chính là kỹ năng mà bất kỳ người kỹ sư, nhà phát minh hay người giải quyết vấn đề nào cũng cần có.”</t>
         </is>
       </c>
     </row>
@@ -634,27 +634,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Theo tôi hiểu “học tập qua trải nghiệm” trong giáo dục STEAM là phương pháp học tập mà học sinh được trực tiếp tham gia vào các hoạt động thực tế, khám phá kiến thức thông qua quan sát, thử nghiệm và giải quyết vấn đề bằng chính đôi tay và tư duy của mình. Đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ kiến thức một cách tự nhiên và lâu dài mà còn tăng tính sáng tạo và chủ động học tập của các em. Một ví dụ cụ thể tôi từng áp dụng trong giờ học Tự nhiên và xã hội là: Học sinh trồng cây từ hạt đậu. Các em được tự tay gieo hạt, tưới nước mỗi ngày, quan sát quá trình hạt nảy mầm, phát triển thành cây non. Từ đó, các em hiểu được chu trình sinh trưởng của thực vật một cách sinh động hơn rất nhiều so với việc chỉ xem hình trong sách. Sau khi được thực hiện hoạt động này, các em chủ động quan sát hơn, ghi nhận kết quả tốt hơn và vô cùng thích thú. Không chỉ vậy, các em còn hỗ trợ nhau thực hiện và trang trí sản phẩm của mình rất đẹp. Mỗi lần nhắc lại kiến thức này, các em đều có thể nhớ lại được hoạt động và trả lời chính xác nội dung bài học.</t>
+          <t>Khi học sinh tham gia hoạt động nghệ thuật, việc các em nói: “Em muốn xem ví dụ” là điều thường thấy. Trong tình huống này, tôi sẽ đưa ra một số ví dụ tham khảo đa dạng nhưng không áp đặt hay bắt buộc học sinh phải làm theo mà luôn khuyến khích các em sáng tạo theo ý tưởng riêng của mình. Tôi sẽ nói với học sinh: “Đây là một vài ví dụ để các em tham khảo nhưng mỗi bạn đều có thể có một cách làm khác – miễn là thể hiện được ý tưởng của mình.” “Cái đẹp không chỉ có một kiểu. Quan trọng là con thể hiện được điều con nghĩ bằng cách riêng.” Những cách hỗ trợ cụ thể tôi sử dụng: Tạo môi trường an toàn và khuyến khích thử sai: Tôi luôn nhấn mạnh rằng trong hoạt động nghệ thuật, không có đúng – sai tuyệt đối. Mỗi bạn đều có thể thể hiện ý tưởng theo cách riêng, miễn là có lý do, mục đích rõ ràng. Điều này giúp học sinh bớt lo lắng, mạnh dạn thử nghiệm và phát triển sự tự tin. Đa dạng hóa ví dụ và tài liệu tham khảo: Tôi cung cấp nhiều hình ảnh hoặc sản phẩm mẫu có phong cách khác nhau (về hình dáng, chất liệu, màu sắc...) để học sinh hiểu rằng không chỉ có một cách – từ đó tăng khả năng sáng tạo và tư duy thẩm mỹ cá nhân. Ngoài ra, tôi có thể nhờ các em học sinh khác trong lớp biểu diễn bằng nhiều hình thức khác nhau để khích lệ tinh thần và giảm bớt áp lực, lo lắng cho học sinh. Đề cao ý tưởng cá nhân và năng lực biểu đạt: Tôi luôn ghi nhận và khích lệ những sáng tạo riêng biệt, giúp học sinh cảm thấy ý tưởng của mình được trân trọng. Điều này góp phần nâng cao động lực học tập và phát triển giá trị bản thân – một nền tảng quan trọng trong giáo dục STEAM. →Trong giáo dục STEAM, yếu tố “A” – nghệ thuật – đóng vai trò quan trọng trong việc nuôi dưỡng trí tưởng tượng, khả năng biểu đạt và tư duy đa chiều. Bằng cách hỗ trợ nhẹ nhàng và định hướng hợp lý, giáo viên có thể giúp học sinh vượt qua rào cản tâm lý và phát triển tư duy sáng tạo một cách tự nhiên, bền vững.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.3684895833333333</v>
+        <v>0.3212809917355372</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3297204733652475</v>
+        <v>0.284115925489144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>chatgpt_4_1_v1_Q1</t>
+          <t>chatgpt_4_1_v2_Q4</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.3149741824440619</v>
+        <v>0.3831417624521073</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -662,27 +662,27 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.3149741824440619</v>
+        <v>0.3831417624521073</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>The response shows a clear, almost textbook structure with a distinct introduction, body, and conclusion, which is a hallmark of AI-generated templates. It uses several generic, positive‑bias phrases such as "đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ" that are frequently found in AI outputs. The sentence lengths and vocabulary choices are fairly uniform, lacking the natural variation typical of human writing. The example of planting beans is a common, textbook illustration that many students might use, indicating a somewhat stereotypical scenario. While the AI similarity score (0.37) and peer similarity score (0.31) are moderate, the symbolic score of 1.00 suggests a high presence of formal, symbolic patterns typical of AI-generated text. Overall, these factors point to a moderate likelihood that the answer is a templated AI output.</t>
+          <t>構造化が非常に整っており、序論・本論・結論が明確に区切られている点がAI的。定型表現（"đây là một vài ví dụ", "mỗi bạn đều có thể..." 等）が頻出し、ポジティブバイアスの言い回しが多い。文体の均一性も高く、句読点や語彙の幅が限定的で文長がほぼ同一である。具体例はSTEAM教育における一般的な指導法を網羅しており、他の学生の回答と類似する要素が多いため、他者と重複しやすい。これらの特徴はAIが生成するテンプレート回答とよく合致する。</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Theo tôi hiểu “học tập qua trải nghiệm” trong giáo dục STEAM là phương pháp học tập mà học sinh được trực tiếp tham gia vào các hoạt động thực tế, khám phá kiến thức thông qua quan sát, thử nghiệm và giải quyết vấn đề bằng chính đôi tay và tư duy của mình. Đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ kiến thức một cách tự nhiên và lâu dài mà còn tăng tính sáng tạo và chủ động học tập của các em. Một ví dụ cụ thể tôi từng áp dụng trong giờ học Tự nhiên và xã hội là: Học sinh trồng cây từ hạt đậu. Các em được tự tay gieo hạt, tưới nước mỗi ngày, quan sát quá trình hạt nảy mầm, phát triển thành cây non. Từ đó, các em hiểu được chu trình sinh trưởng của thực vật một cách sinh động hơn rất nhiều so với việc chỉ xem hình trong sách. Sau khi được thực hiện hoạt động này, các em chủ động quan sát hơn, ghi nhận kết quả tốt hơn và vô cùng thích thú. Không chỉ vậy, các em còn hỗ trợ nhau thực hiện và trang trí sản phẩm của mình rất đẹp. Mỗi lần nhắc lại kiến thức này, các em đều có thể nhớ lại được hoạt động và trả lời chính xác nội dung bài học.</t>
+          <t>Khi học sinh tham gia hoạt động nghệ thuật, việc các em nói: “Em muốn xem ví dụ” là điều thường thấy. Trong tình huống này, tôi sẽ đưa ra một số ví dụ tham khảo đa dạng nhưng không áp đặt hay bắt buộc học sinh phải làm theo mà luôn khuyến khích các em sáng tạo theo ý tưởng riêng của mình. Tôi sẽ nói với học sinh: “Đây là một vài ví dụ để các em tham khảo nhưng mỗi bạn đều có thể có một cách làm khác – miễn là thể hiện được ý tưởng của mình.” “Cái đẹp không chỉ có một kiểu. Quan trọng là con thể hiện được điều con nghĩ bằng cách riêng.” Những cách hỗ trợ cụ thể tôi sử dụng: Tạo môi trường an toàn và khuyến khích thử sai: Tôi luôn nhấn mạnh rằng trong hoạt động nghệ thuật, không có đúng – sai tuyệt đối. Mỗi bạn đều có thể thể hiện ý tưởng theo cách riêng, miễn là có lý do, mục đích rõ ràng. Điều này giúp học sinh bớt lo lắng, mạnh dạn thử nghiệm và phát triển sự tự tin. Đa dạng hóa ví dụ và tài liệu tham khảo: Tôi cung cấp nhiều hình ảnh hoặc sản phẩm mẫu có phong cách khác nhau (về hình dáng, chất liệu, màu sắc...) để học sinh hiểu rằng không chỉ có một cách – từ đó tăng khả năng sáng tạo và tư duy thẩm mỹ cá nhân. Ngoài ra, tôi có thể nhờ các em học sinh khác trong lớp biểu diễn bằng nhiều hình thức khác nhau để khích lệ tinh thần và giảm bớt áp lực, lo lắng cho học sinh. Đề cao ý tưởng cá nhân và năng lực biểu đạt: Tôi luôn ghi nhận và khích lệ những sáng tạo riêng biệt, giúp học sinh cảm thấy ý tưởng của mình được trân trọng. Điều này góp phần nâng cao động lực học tập và phát triển giá trị bản thân – một nền tảng quan trọng trong giáo dục STEAM. →Trong giáo dục STEAM, yếu tố “A” – nghệ thuật – đóng vai trò quan trọng trong việc nuôi dưỡng trí tưởng tượng, khả năng biểu đạt và tư duy đa chiều. Bằng cách hỗ trợ nhẹ nhàng và định hướng hợp lý, giáo viên có thể giúp học sinh vượt qua rào cản tâm lý và phát triển tư duy sáng tạo một cách tự nhiên, bền vững.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Theo tôi hiểu “học tập qua trải nghiệm” trong giáo dục STEAM là phương pháp học tập mà học sinh được trực tiếp tham gia vào các hoạt động thực tế, khám phá kiến thức thông qua quan sát, thử nghiệm và giải quyết vấn đề bằng chính đôi tay và tư duy của mình. Đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ kiến thức một cách tự nhiên và lâu dài mà còn tăng tính sáng tạo và chủ động học tập của các em. Một ví dụ cụ thể tôi từng áp dụng trong giờ học Tự nhiên và xã hội là: Học sinh trồng cây từ hạt đậu. Các em được tự tay gieo hạt, tưới nước mỗi ngày, quan sát quá trình hạt nảy mầm, phát triển thành cây non. Từ đó, các em hiểu được chu trình sinh trưởng của thực vật một cách sinh động hơn rất nhiều so với việc chỉ xem hình trong sách. Sau khi được thực hiện hoạt động này, các em chủ động quan sát hơn, ghi nhận kết quả tốt hơn và vô cùng thích thú. Không chỉ vậy, các em còn hỗ trợ nhau thực hiện và trang trí sản phẩm của mình rất đẹp. Mỗi lần nhắc lại kiến thức này, các em đều có thể nhớ lại được hoạt động và trả lời chính xác nội dung bài học.</t>
+          <t>Khi học sinh tham gia hoạt động nghệ thuật, việc các em nói: “Em muốn xem ví dụ” là điều thường thấy. Trong tình huống này, tôi sẽ đưa ra một số ví dụ tham khảo đa dạng nhưng không áp đặt hay bắt buộc học sinh phải làm theo mà luôn khuyến khích các em sáng tạo theo ý tưởng riêng của mình. Tôi sẽ nói với học sinh: “Đây là một vài ví dụ để các em tham khảo nhưng mỗi bạn đều có thể có một cách làm khác – miễn là thể hiện được ý tưởng của mình.” “Cái đẹp không chỉ có một kiểu. Quan trọng là con thể hiện được điều con nghĩ bằng cách riêng.” Những cách hỗ trợ cụ thể tôi sử dụng: Tạo môi trường an toàn và khuyến khích thử sai: Tôi luôn nhấn mạnh rằng trong hoạt động nghệ thuật, không có đúng – sai tuyệt đối. Mỗi bạn đều có thể thể hiện ý tưởng theo cách riêng, miễn là có lý do, mục đích rõ ràng. Điều này giúp học sinh bớt lo lắng, mạnh dạn thử nghiệm và phát triển sự tự tin. Đa dạng hóa ví dụ và tài liệu tham khảo: Tôi cung cấp nhiều hình ảnh hoặc sản phẩm mẫu có phong cách khác nhau (về hình dáng, chất liệu, màu sắc...) để học sinh hiểu rằng không chỉ có một cách – từ đó tăng khả năng sáng tạo và tư duy thẩm mỹ cá nhân. Ngoài ra, tôi có thể nhờ các em học sinh khác trong lớp biểu diễn bằng nhiều hình thức khác nhau để khích lệ tinh thần và giảm bớt áp lực, lo lắng cho học sinh. Đề cao ý tưởng cá nhân và năng lực biểu đạt: Tôi luôn ghi nhận và khích lệ những sáng tạo riêng biệt, giúp học sinh cảm thấy ý tưởng của mình được trân trọng. Điều này góp phần nâng cao động lực học tập và phát triển giá trị bản thân – một nền tảng quan trọng trong giáo dục STEAM. →Trong giáo dục STEAM, yếu tố “A” – nghệ thuật – đóng vai trò quan trọng trong việc nuôi dưỡng trí tưởng tượng, khả năng biểu đạt và tư duy đa chiều. Bằng cách hỗ trợ nhẹ nhàng và định hướng hợp lý, giáo viên có thể giúp học sinh vượt qua rào cản tâm lý và phát triển tư duy sáng tạo một cách tự nhiên, bền vững.</t>
         </is>
       </c>
     </row>
@@ -694,27 +694,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Với bài tập “Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.” Tôi sẽ thiết kế kế hoạch bài dạy của tôi với các hoạt động mà học sinh được thực hiện theo nhóm (3 – 5 học sinh/nhóm) 1. Khởi động và gợi mở vấn đề: Tôi cùng học sinh giải mã các câu hỏi sau: “Các em đã bao giờ làm rơi viên phấn chưa?” “Tại sao viên phấn lại dễ vỡ?” “Theo các em, làm thế nào để bảo vệ phấn khi bị rơi từ trên cao?” Những câu hỏi này giúp học sinh liên hệ thực tế và xác định mục tiêu của hoạt động. 2. Thử nghiệm 1: - Học sinh thảo luận nhóm và tự lựa chọn các vật liệu mà các em có để thử nghiệm bài tập này. VD: Dùng khăn giấy quấn quanh viên phấn, dùng hộp bút vải để đựng viên phấn,..... Giao nhiệm vụ: Mỗi nhóm sẽ được cung cấp các vật liệu đơn giản như: giấy, bìa cứng, dây thun, ống hút, xốp mềm, băng dính, ni-long,... Học sinh cần thiết kế một “thiết bị bảo vệ phấn” sao cho viên phấn không bị vỡ khi thả từ độ cao 3 mét. Thực hành và thử nghiệm: Các nhóm thảo luận, thiết kế và lắp ráp mô hình. Sau đó, từng nhóm mang thiết bị ra thử nghiệm bằng cách thả viên phấn từ độ cao quy định và quan sát kết quả. Thảo luận và cải tiến: Học sinh chia sẻ thiết kế, giải thích vì sao thiết bị của mình có thể bảo vệ phấn. Nếu thiết bị chưa hiệu quả, các em được khuyến khích điều chỉnh để thử lại. Thông qua hoạt động này, học sinh sẽ phát triển các năng lực: Tư duy logic và sáng tạo: Vì các em phải vừa tìm ra ý tưởng, vừa giải thích được tính hợp lý của vật liệu. Giải quyết vấn đề thực tiễn: Vận dụng kiến thức về vật lý đơn giản như lực va đập, độ đàn hồi... để bảo vệ vật thể. Kỹ năng làm việc nhóm, giao tiếp và thử sai: Hoạt động giúp các em học cách lắng nghe, điều chỉnh kế hoạch và không ngại thất bại. Đây là một hoạt động STEAM tiêu biểu giúp học sinh rèn luyện tư duy thực tiễn ngay từ lớp 3 một cách hào hứng, hiệu quả và đầy sáng tạo.</t>
+          <t>Sử dụng vật liệu tái chế trong dạy học Chủ đề: Làm hộp bút từ chai nhựa cũ Môn học: Tự nhiên và Xã hội (lớp 3) hoặc Khoa học (lớp 4–5) Mục tiêu: Học sinh hiểu được lợi ích của việc tái sử dụng rác thải nhựa. Biết cách thiết kế một sản phẩm hữu ích từ đồ bỏ đi. Phát triển tư duy sáng tạo, kỹ năng giải quyết vấn đề và ý thức bảo vệ môi trường. Hoạt động dạy học: 1. Khởi động – Gợi vấn đề: GV đặt câu hỏi: “Mỗi năm chúng ta thải ra rất nhiều chai nhựa, nếu không tái chế thì chuyện gì sẽ xảy ra với môi trường?” “Chai nhựa bỏ đi có thể biến thành đồ dùng học tập gì?” Khám phá – Thiết kế: Học sinh quan sát một số mẫu hộp bút tái chế từ chai nhựa. Làm việc nhóm, phác thảo thiết kế hộp bút riêng: hình dạng, màu sắc, cách đóng mở nắp... Liệt kê vật liệu: chai nhựa, kéo, băng keo màu, khóa kéo, nút nhựa,... Chế tạo sản phẩm: Các nhóm tiến hành cắt, dán, gắn khóa kéo để tạo thành hộp bút theo thiết kế. Ghi lại những điều chỉnh khi gặp khó khăn (ví dụ: miệng hộp không khép kín, vật liệu dễ rách...). Trình bày và phản hồi: Mỗi nhóm giới thiệu sản phẩm và nêu cách sử dụng, điểm hay của thiết kế. Kết nối mở rộng: 3790950454346GV tổng kết: “Chúng ta đã học cách tái chế để tạo ra vật dụng hữu ích – vừa tiết kiệm, vừa bảo vệ môi trường. Đây chính là một hành động nhỏ nhưng ý nghĩa lớn.” Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp;amp; giải quyết vấn đề: Thiết kế sản phẩm từ vật liệu quen thuộc. Hợp tác và giao tiếp: Làm việc nhóm để hoàn thành sản phẩm. Ý thức môi trường: Hiểu giá trị của tái chế, giảm rác thải nhựa. Kết nối liên môn: Tự nhiên và Xã hội (hiểu môi trường) – Mỹ thuật (trang trí) – Công nghệ (chế tạo).</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3660714285714285</v>
+        <v>0.2512254901960784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2947390410435966</v>
+        <v>0.2153602118459444</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>chatgpt_4_1_v2_Q3</t>
+          <t>gemini2_5_pro_v1_Q5</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.3749093546047861</v>
+        <v>0.325309992706054</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -722,67 +722,67 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.3749093546047861</v>
+        <v>0.325309992706054</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>構造化: 回答は序論・本論・結論が明確に区分されており、段落ごとに目的・手順・評価が整理されている点でAIが生成するテンプレート的な構成に近い。定型表現: 「Tôi cùng học sinh giải mã」「Mỗi nhóm sẽ được cung cấp」「Thảo luận và cải tiến」など、教育関連のAI回答で頻繁に見られるフレーズが散見される。文体の均一性: 文長はほぼ均一で、語彙も比較的限定的（例: "đề", "bài", "độ", "điểm"など）で、自然な人間の多様な表現よりも統一感が強い。具体例の典型的すぎる点: 3メートルからの落下という設定や、紙・段ボール・ゴムバンドなどの素材リストは多くの学生が採用しやすい標準的な例で、peer_similarity_score が 0.37 であることから他の回答と類似している可能性がある。総合すると、AIが生成したテンプレート的回答の可能性は中程度（約0.55）と判断できる。</t>
+          <t>構造化: 回答は序論・本論・結論が極めて明確に区分され、章立てと箇条書きで整った構造を示しているため、AIのテンプレート化が疑われる。 定型表現: 例として「Mục tiêu: Học sinh hiểu được lợi ích…」「Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp; giải quyết vấn đề」など、AIがよく使用するフレーズやポジティブバイアス的表現が多い。 文体の均一性: 文章の長さや語彙は比較的一様で、専門用語や慣用表現が少なく、全体的にテンプレート的な文体が目立つ。 具体例の典型的すぎる点: 具体例は「Làm hộp bút từ chai nhựa cũ」という共通テーマで、他の学生の回答と類似度が0.33と示されているように、内容が典型的であるため、生成AIの一般的な例題に近い。 以上の点から、AIが書いた可能性は中程度に高いと判断し、スコアを0.6としました。</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Với bài tập “Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.” Tôi sẽ thiết kế kế hoạch bài dạy của tôi với các hoạt động mà học sinh được thực hiện theo nhóm (3 – 5 học sinh/nhóm) 1. Khởi động và gợi mở vấn đề: Tôi cùng học sinh giải mã các câu hỏi sau: “Các em đã bao giờ làm rơi viên phấn chưa?” “Tại sao viên phấn lại dễ vỡ?” “Theo các em, làm thế nào để bảo vệ phấn khi bị rơi từ trên cao?” Những câu hỏi này giúp học sinh liên hệ thực tế và xác định mục tiêu của hoạt động. 2. Thử nghiệm 1: - Học sinh thảo luận nhóm và tự lựa chọn các vật liệu mà các em có để thử nghiệm bài tập này. VD: Dùng khăn giấy quấn quanh viên phấn, dùng hộp bút vải để đựng viên phấn,..... Giao nhiệm vụ: Mỗi nhóm sẽ được cung cấp các vật liệu đơn giản như: giấy, bìa cứng, dây thun, ống hút, xốp mềm, băng dính, ni-long,... Học sinh cần thiết kế một “thiết bị bảo vệ phấn” sao cho viên phấn không bị vỡ khi thả từ độ cao 3 mét. Thực hành và thử nghiệm: Các nhóm thảo luận, thiết kế và lắp ráp mô hình. Sau đó, từng nhóm mang thiết bị ra thử nghiệm bằng cách thả viên phấn từ độ cao quy định và quan sát kết quả. Thảo luận và cải tiến: Học sinh chia sẻ thiết kế, giải thích vì sao thiết bị của mình có thể bảo vệ phấn. Nếu thiết bị chưa hiệu quả, các em được khuyến khích điều chỉnh để thử lại. Thông qua hoạt động này, học sinh sẽ phát triển các năng lực: Tư duy logic và sáng tạo: Vì các em phải vừa tìm ra ý tưởng, vừa giải thích được tính hợp lý của vật liệu. Giải quyết vấn đề thực tiễn: Vận dụng kiến thức về vật lý đơn giản như lực va đập, độ đàn hồi... để bảo vệ vật thể. Kỹ năng làm việc nhóm, giao tiếp và thử sai: Hoạt động giúp các em học cách lắng nghe, điều chỉnh kế hoạch và không ngại thất bại. Đây là một hoạt động STEAM tiêu biểu giúp học sinh rèn luyện tư duy thực tiễn ngay từ lớp 3 một cách hào hứng, hiệu quả và đầy sáng tạo.</t>
+          <t>Sử dụng vật liệu tái chế trong dạy học Chủ đề: Làm hộp bút từ chai nhựa cũ Môn học: Tự nhiên và Xã hội (lớp 3) hoặc Khoa học (lớp 4–5) Mục tiêu: Học sinh hiểu được lợi ích của việc tái sử dụng rác thải nhựa. Biết cách thiết kế một sản phẩm hữu ích từ đồ bỏ đi. Phát triển tư duy sáng tạo, kỹ năng giải quyết vấn đề và ý thức bảo vệ môi trường. Hoạt động dạy học: 1. Khởi động – Gợi vấn đề: GV đặt câu hỏi: “Mỗi năm chúng ta thải ra rất nhiều chai nhựa, nếu không tái chế thì chuyện gì sẽ xảy ra với môi trường?” “Chai nhựa bỏ đi có thể biến thành đồ dùng học tập gì?” Khám phá – Thiết kế: Học sinh quan sát một số mẫu hộp bút tái chế từ chai nhựa. Làm việc nhóm, phác thảo thiết kế hộp bút riêng: hình dạng, màu sắc, cách đóng mở nắp... Liệt kê vật liệu: chai nhựa, kéo, băng keo màu, khóa kéo, nút nhựa,... Chế tạo sản phẩm: Các nhóm tiến hành cắt, dán, gắn khóa kéo để tạo thành hộp bút theo thiết kế. Ghi lại những điều chỉnh khi gặp khó khăn (ví dụ: miệng hộp không khép kín, vật liệu dễ rách...). Trình bày và phản hồi: Mỗi nhóm giới thiệu sản phẩm và nêu cách sử dụng, điểm hay của thiết kế. Kết nối mở rộng: 3790950454346GV tổng kết: “Chúng ta đã học cách tái chế để tạo ra vật dụng hữu ích – vừa tiết kiệm, vừa bảo vệ môi trường. Đây chính là một hành động nhỏ nhưng ý nghĩa lớn.” Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp;amp; giải quyết vấn đề: Thiết kế sản phẩm từ vật liệu quen thuộc. Hợp tác và giao tiếp: Làm việc nhóm để hoàn thành sản phẩm. Ý thức môi trường: Hiểu giá trị của tái chế, giảm rác thải nhựa. Kết nối liên môn: Tự nhiên và Xã hội (hiểu môi trường) – Mỹ thuật (trang trí) – Công nghệ (chế tạo).</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Với bài tập “Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.” Tôi sẽ thiết kế kế hoạch bài dạy của tôi với các hoạt động mà học sinh được thực hiện theo nhóm (3 – 5 học sinh/nhóm) 1. Khởi động và gợi mở vấn đề: Tôi cùng học sinh giải mã các câu hỏi sau: “Các em đã bao giờ làm rơi viên phấn chưa?” “Tại sao viên phấn lại dễ vỡ?” “Theo các em, làm thế nào để bảo vệ phấn khi bị rơi từ trên cao?” Những câu hỏi này giúp học sinh liên hệ thực tế và xác định mục tiêu của hoạt động. 2. Thử nghiệm 1: - Học sinh thảo luận nhóm và tự lựa chọn các vật liệu mà các em có để thử nghiệm bài tập này. VD: Dùng khăn giấy quấn quanh viên phấn, dùng hộp bút vải để đựng viên phấn,..... Giao nhiệm vụ: Mỗi nhóm sẽ được cung cấp các vật liệu đơn giản như: giấy, bìa cứng, dây thun, ống hút, xốp mềm, băng dính, ni-long,... Học sinh cần thiết kế một “thiết bị bảo vệ phấn” sao cho viên phấn không bị vỡ khi thả từ độ cao 3 mét. Thực hành và thử nghiệm: Các nhóm thảo luận, thiết kế và lắp ráp mô hình. Sau đó, từng nhóm mang thiết bị ra thử nghiệm bằng cách thả viên phấn từ độ cao quy định và quan sát kết quả. Thảo luận và cải tiến: Học sinh chia sẻ thiết kế, giải thích vì sao thiết bị của mình có thể bảo vệ phấn. Nếu thiết bị chưa hiệu quả, các em được khuyến khích điều chỉnh để thử lại. Thông qua hoạt động này, học sinh sẽ phát triển các năng lực: Tư duy logic và sáng tạo: Vì các em phải vừa tìm ra ý tưởng, vừa giải thích được tính hợp lý của vật liệu. Giải quyết vấn đề thực tiễn: Vận dụng kiến thức về vật lý đơn giản như lực va đập, độ đàn hồi... để bảo vệ vật thể. Kỹ năng làm việc nhóm, giao tiếp và thử sai: Hoạt động giúp các em học cách lắng nghe, điều chỉnh kế hoạch và không ngại thất bại. Đây là một hoạt động STEAM tiêu biểu giúp học sinh rèn luyện tư duy thực tiễn ngay từ lớp 3 một cách hào hứng, hiệu quả và đầy sáng tạo.</t>
+          <t>Sử dụng vật liệu tái chế trong dạy học Chủ đề: Làm hộp bút từ chai nhựa cũ Môn học: Tự nhiên và Xã hội (lớp 3) hoặc Khoa học (lớp 4–5) Mục tiêu: Học sinh hiểu được lợi ích của việc tái sử dụng rác thải nhựa. Biết cách thiết kế một sản phẩm hữu ích từ đồ bỏ đi. Phát triển tư duy sáng tạo, kỹ năng giải quyết vấn đề và ý thức bảo vệ môi trường. Hoạt động dạy học: 1. Khởi động – Gợi vấn đề: GV đặt câu hỏi: “Mỗi năm chúng ta thải ra rất nhiều chai nhựa, nếu không tái chế thì chuyện gì sẽ xảy ra với môi trường?” “Chai nhựa bỏ đi có thể biến thành đồ dùng học tập gì?” Khám phá – Thiết kế: Học sinh quan sát một số mẫu hộp bút tái chế từ chai nhựa. Làm việc nhóm, phác thảo thiết kế hộp bút riêng: hình dạng, màu sắc, cách đóng mở nắp... Liệt kê vật liệu: chai nhựa, kéo, băng keo màu, khóa kéo, nút nhựa,... Chế tạo sản phẩm: Các nhóm tiến hành cắt, dán, gắn khóa kéo để tạo thành hộp bút theo thiết kế. Ghi lại những điều chỉnh khi gặp khó khăn (ví dụ: miệng hộp không khép kín, vật liệu dễ rách...). Trình bày và phản hồi: Mỗi nhóm giới thiệu sản phẩm và nêu cách sử dụng, điểm hay của thiết kế. Kết nối mở rộng: 3790950454346GV tổng kết: “Chúng ta đã học cách tái chế để tạo ra vật dụng hữu ích – vừa tiết kiệm, vừa bảo vệ môi trường. Đây chính là một hành động nhỏ nhưng ý nghĩa lớn.” Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp;amp; giải quyết vấn đề: Thiết kế sản phẩm từ vật liệu quen thuộc. Hợp tác và giao tiếp: Làm việc nhóm để hoàn thành sản phẩm. Ý thức môi trường: Hiểu giá trị của tái chế, giảm rác thải nhựa. Kết nối liên môn: Tự nhiên và Xã hội (hiểu môi trường) – Mỹ thuật (trang trí) – Công nghệ (chế tạo).</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trong giáo dục STEAM thường liên quan đến việc tạo ra các sản phẩm có yếu tố nghệ thuật, điều quan trọng không phải là làm đẹp, giống nhau hay đúng theo một mẫu quy định, mà là mỗi bạn có thể thể hiện ý tưởng của mình theo cách riêng. Mỗi sản phẩm đều mang một dấu ấn đặc biệt của người làm ra nó. Nếu các em cảm thấy băn khoăn chưa biết làm thế nào hoặc muốn xem ví dụ, điều đó rất bình thường. Khi chúng ta sáng tạo, ai cũng có lúc chưa biết bắt đầu từ đâu. Nhưng hãy nhớ: mẫu thầy cho các em xem chỉ là gợi ý thôi. Các em có thể từ đó nghĩ thêm và làm khác đi, chọn màu sắc khác, hoặc tạo ra một cách trang trí độc đáo, sáng tạo hơn. Đó chính là tinh thần của STEAM - không sợ sai, không sợ khác biệt, mà chỉ cần dám nghĩ, dám thử và dám sáng tạo.” Những cách hỗ trợ cụ thể để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh: Chuẩn bị nhiều ví dụ đa dạng. Không chỉ một mẫu duy nhất mà là nhiều mẫu khác nhau về hình dạng, màu sắc, vật liệu để học sinh hiểu rằng: một ý tưởng có thể có rất nhiều cách thể hiện. Ví dụ: Với đề tài “làm con cá bằng thùng carton”, có thể có con cá tròn, con cá dài, cá màu đỏ, cá đính vảy từ giấy màu, cá từ nắp chai... Giải thích rõ mục đích của việc xem ví dụ. Nhấn mạnh rằng: “Mình xem mẫu để hiểu cách bắt đầu, nhưng sản phẩm của em sẽ mang dấu ấn riêng mà không ai giống được.” Cách này giúp học sinh bớt lo lắng về việc phải làm giống hệt. Gợi ý bằng câu hỏi mở. Thay vì đưa sẵn đáp án, hãy dẫn dắt bằng các câu hỏi để kích thích ý tưởng: + “Nếu là em, em thích làm con cá màu gì?” + “Em muốn trang trí thêm gì cho con vật/phương tiện của mình để nó khác biệt?” + “Em nghĩ vật liệu nào có thể làm thành cái đuôi đẹp hơn không?” Cho học sinh thử nghiệm và sửa chữa. Khuyến khích học sinh thử làm một chi tiết nhỏ trước (ví dụ: vẽ mắt con vật, cắt thử một bánh xe...) để giảm bớt áp lực “làm cả mô hình ngay một lúc”. Động viên: “Nếu chưa ưng ý mình có thể làm lại mà — quan trọng là mình đang thử nghiệm.” 5. Luôn khen ngợi nỗ lực và ý tưởng của học sinh. Dù sản phẩm còn vụng về, giáo viên vẫn nên khen ý tưởng của các em. Chẳng hạn: “Thầy thích cách em làm bánh xe tròn bằng nắp chai đấy – rất lạ và độc đáo.” Điều này giúp học sinh thấy giá trị từ việc sáng tạo, chứ không phải chỉ từ việc làm đúng , làm đẹp.</t>
+          <t>Với bài tập “Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.” Tôi sẽ thiết kế kế hoạch bài dạy của tôi với các hoạt động mà học sinh được thực hiện theo nhóm (3 – 5 học sinh/nhóm) 1. Khởi động và gợi mở vấn đề: Tôi cùng học sinh giải mã các câu hỏi sau: “Các em đã bao giờ làm rơi viên phấn chưa?” “Tại sao viên phấn lại dễ vỡ?” “Theo các em, làm thế nào để bảo vệ phấn khi bị rơi từ trên cao?” Những câu hỏi này giúp học sinh liên hệ thực tế và xác định mục tiêu của hoạt động. 2. Thử nghiệm 1: - Học sinh thảo luận nhóm và tự lựa chọn các vật liệu mà các em có để thử nghiệm bài tập này. VD: Dùng khăn giấy quấn quanh viên phấn, dùng hộp bút vải để đựng viên phấn,..... Giao nhiệm vụ: Mỗi nhóm sẽ được cung cấp các vật liệu đơn giản như: giấy, bìa cứng, dây thun, ống hút, xốp mềm, băng dính, ni-long,... Học sinh cần thiết kế một “thiết bị bảo vệ phấn” sao cho viên phấn không bị vỡ khi thả từ độ cao 3 mét. Thực hành và thử nghiệm: Các nhóm thảo luận, thiết kế và lắp ráp mô hình. Sau đó, từng nhóm mang thiết bị ra thử nghiệm bằng cách thả viên phấn từ độ cao quy định và quan sát kết quả. Thảo luận và cải tiến: Học sinh chia sẻ thiết kế, giải thích vì sao thiết bị của mình có thể bảo vệ phấn. Nếu thiết bị chưa hiệu quả, các em được khuyến khích điều chỉnh để thử lại. Thông qua hoạt động này, học sinh sẽ phát triển các năng lực: Tư duy logic và sáng tạo: Vì các em phải vừa tìm ra ý tưởng, vừa giải thích được tính hợp lý của vật liệu. Giải quyết vấn đề thực tiễn: Vận dụng kiến thức về vật lý đơn giản như lực va đập, độ đàn hồi... để bảo vệ vật thể. Kỹ năng làm việc nhóm, giao tiếp và thử sai: Hoạt động giúp các em học cách lắng nghe, điều chỉnh kế hoạch và không ngại thất bại. Đây là một hoạt động STEAM tiêu biểu giúp học sinh rèn luyện tư duy thực tiễn ngay từ lớp 3 một cách hào hứng, hiệu quả và đầy sáng tạo.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2987616099071207</v>
+        <v>0.3660714285714285</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2717208309081552</v>
+        <v>0.2947390410435966</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>chatgpt_5_1_v1_Q4</t>
+          <t>chatgpt_4_1_v2_Q3</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.3831417624521073</v>
+        <v>0.3749093546047861</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.3831417624521073</v>
+        <v>0.3749093546047861</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -792,24 +792,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>The response shows a fairly rigid structure with a clear introduction, body, and conclusion, which is typical of AI-generated templates. It contains several generic, positive‑bias phrases such as "điều quan trọng không phải là làm đẹp" and "đừng sợ sai", which are common in AI outputs. The style is quite uniform: sentences are of similar length, and the vocabulary is repetitive, lacking the natural variation seen in human writing. Additionally, the examples provided (e.g., building a fish from cardboard) are generic and likely appear in many other students’ answers, as indicated by the moderate peer similarity score. While the AI similarity score is only 0.30, the high symbolic score and the overall pattern of the text suggest a moderate likelihood that this is a template‑based AI answer.</t>
+          <t>The answer contains a very clear, modular structure with a distinct opening, body, and closing, which is typical of AI-generated templates. The phrasing includes frequent positive-bias expressions such as "đạt hiệu quả", "hợp lý", and "đầy sáng tạo", common in AI outputs. The style is uniform throughout: sentences are of similar length, and the vocabulary is repetitive, lacking the natural variation seen in human writing. Moreover, the examples and activity descriptions are generic and align closely with common lesson‑plan templates, reflected in the moderate AI and peer similarity scores (0.37 each) and a high symbolic score of 1.0 indicating strong adherence to formal writing patterns. Overall, these features suggest a moderate likelihood that the answer was produced by a generative AI.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Trong giáo dục STEAM thường liên quan đến việc tạo ra các sản phẩm có yếu tố nghệ thuật, điều quan trọng không phải là làm đẹp, giống nhau hay đúng theo một mẫu quy định, mà là mỗi bạn có thể thể hiện ý tưởng của mình theo cách riêng. Mỗi sản phẩm đều mang một dấu ấn đặc biệt của người làm ra nó. Nếu các em cảm thấy băn khoăn chưa biết làm thế nào hoặc muốn xem ví dụ, điều đó rất bình thường. Khi chúng ta sáng tạo, ai cũng có lúc chưa biết bắt đầu từ đâu. Nhưng hãy nhớ: mẫu thầy cho các em xem chỉ là gợi ý thôi. Các em có thể từ đó nghĩ thêm và làm khác đi, chọn màu sắc khác, hoặc tạo ra một cách trang trí độc đáo, sáng tạo hơn. Đó chính là tinh thần của STEAM - không sợ sai, không sợ khác biệt, mà chỉ cần dám nghĩ, dám thử và dám sáng tạo.” Những cách hỗ trợ cụ thể để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh: Chuẩn bị nhiều ví dụ đa dạng. Không chỉ một mẫu duy nhất mà là nhiều mẫu khác nhau về hình dạng, màu sắc, vật liệu để học sinh hiểu rằng: một ý tưởng có thể có rất nhiều cách thể hiện. Ví dụ: Với đề tài “làm con cá bằng thùng carton”, có thể có con cá tròn, con cá dài, cá màu đỏ, cá đính vảy từ giấy màu, cá từ nắp chai... Giải thích rõ mục đích của việc xem ví dụ. Nhấn mạnh rằng: “Mình xem mẫu để hiểu cách bắt đầu, nhưng sản phẩm của em sẽ mang dấu ấn riêng mà không ai giống được.” Cách này giúp học sinh bớt lo lắng về việc phải làm giống hệt. Gợi ý bằng câu hỏi mở. Thay vì đưa sẵn đáp án, hãy dẫn dắt bằng các câu hỏi để kích thích ý tưởng: + “Nếu là em, em thích làm con cá màu gì?” + “Em muốn trang trí thêm gì cho con vật/phương tiện của mình để nó khác biệt?” + “Em nghĩ vật liệu nào có thể làm thành cái đuôi đẹp hơn không?” Cho học sinh thử nghiệm và sửa chữa. Khuyến khích học sinh thử làm một chi tiết nhỏ trước (ví dụ: vẽ mắt con vật, cắt thử một bánh xe...) để giảm bớt áp lực “làm cả mô hình ngay một lúc”. Động viên: “Nếu chưa ưng ý mình có thể làm lại mà — quan trọng là mình đang thử nghiệm.” 5. Luôn khen ngợi nỗ lực và ý tưởng của học sinh. Dù sản phẩm còn vụng về, giáo viên vẫn nên khen ý tưởng của các em. Chẳng hạn: “Thầy thích cách em làm bánh xe tròn bằng nắp chai đấy – rất lạ và độc đáo.” Điều này giúp học sinh thấy giá trị từ việc sáng tạo, chứ không phải chỉ từ việc làm đúng , làm đẹp.</t>
+          <t>Với bài tập “Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.” Tôi sẽ thiết kế kế hoạch bài dạy của tôi với các hoạt động mà học sinh được thực hiện theo nhóm (3 – 5 học sinh/nhóm) 1. Khởi động và gợi mở vấn đề: Tôi cùng học sinh giải mã các câu hỏi sau: “Các em đã bao giờ làm rơi viên phấn chưa?” “Tại sao viên phấn lại dễ vỡ?” “Theo các em, làm thế nào để bảo vệ phấn khi bị rơi từ trên cao?” Những câu hỏi này giúp học sinh liên hệ thực tế và xác định mục tiêu của hoạt động. 2. Thử nghiệm 1: - Học sinh thảo luận nhóm và tự lựa chọn các vật liệu mà các em có để thử nghiệm bài tập này. VD: Dùng khăn giấy quấn quanh viên phấn, dùng hộp bút vải để đựng viên phấn,..... Giao nhiệm vụ: Mỗi nhóm sẽ được cung cấp các vật liệu đơn giản như: giấy, bìa cứng, dây thun, ống hút, xốp mềm, băng dính, ni-long,... Học sinh cần thiết kế một “thiết bị bảo vệ phấn” sao cho viên phấn không bị vỡ khi thả từ độ cao 3 mét. Thực hành và thử nghiệm: Các nhóm thảo luận, thiết kế và lắp ráp mô hình. Sau đó, từng nhóm mang thiết bị ra thử nghiệm bằng cách thả viên phấn từ độ cao quy định và quan sát kết quả. Thảo luận và cải tiến: Học sinh chia sẻ thiết kế, giải thích vì sao thiết bị của mình có thể bảo vệ phấn. Nếu thiết bị chưa hiệu quả, các em được khuyến khích điều chỉnh để thử lại. Thông qua hoạt động này, học sinh sẽ phát triển các năng lực: Tư duy logic và sáng tạo: Vì các em phải vừa tìm ra ý tưởng, vừa giải thích được tính hợp lý của vật liệu. Giải quyết vấn đề thực tiễn: Vận dụng kiến thức về vật lý đơn giản như lực va đập, độ đàn hồi... để bảo vệ vật thể. Kỹ năng làm việc nhóm, giao tiếp và thử sai: Hoạt động giúp các em học cách lắng nghe, điều chỉnh kế hoạch và không ngại thất bại. Đây là một hoạt động STEAM tiêu biểu giúp học sinh rèn luyện tư duy thực tiễn ngay từ lớp 3 một cách hào hứng, hiệu quả và đầy sáng tạo.</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Trong giáo dục STEAM thường liên quan đến việc tạo ra các sản phẩm có yếu tố nghệ thuật, điều quan trọng không phải là làm đẹp, giống nhau hay đúng theo một mẫu quy định, mà là mỗi bạn có thể thể hiện ý tưởng của mình theo cách riêng. Mỗi sản phẩm đều mang một dấu ấn đặc biệt của người làm ra nó. Nếu các em cảm thấy băn khoăn chưa biết làm thế nào hoặc muốn xem ví dụ, điều đó rất bình thường. Khi chúng ta sáng tạo, ai cũng có lúc chưa biết bắt đầu từ đâu. Nhưng hãy nhớ: mẫu thầy cho các em xem chỉ là gợi ý thôi. Các em có thể từ đó nghĩ thêm và làm khác đi, chọn màu sắc khác, hoặc tạo ra một cách trang trí độc đáo, sáng tạo hơn. Đó chính là tinh thần của STEAM - không sợ sai, không sợ khác biệt, mà chỉ cần dám nghĩ, dám thử và dám sáng tạo.” Những cách hỗ trợ cụ thể để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh: Chuẩn bị nhiều ví dụ đa dạng. Không chỉ một mẫu duy nhất mà là nhiều mẫu khác nhau về hình dạng, màu sắc, vật liệu để học sinh hiểu rằng: một ý tưởng có thể có rất nhiều cách thể hiện. Ví dụ: Với đề tài “làm con cá bằng thùng carton”, có thể có con cá tròn, con cá dài, cá màu đỏ, cá đính vảy từ giấy màu, cá từ nắp chai... Giải thích rõ mục đích của việc xem ví dụ. Nhấn mạnh rằng: “Mình xem mẫu để hiểu cách bắt đầu, nhưng sản phẩm của em sẽ mang dấu ấn riêng mà không ai giống được.” Cách này giúp học sinh bớt lo lắng về việc phải làm giống hệt. Gợi ý bằng câu hỏi mở. Thay vì đưa sẵn đáp án, hãy dẫn dắt bằng các câu hỏi để kích thích ý tưởng: + “Nếu là em, em thích làm con cá màu gì?” + “Em muốn trang trí thêm gì cho con vật/phương tiện của mình để nó khác biệt?” + “Em nghĩ vật liệu nào có thể làm thành cái đuôi đẹp hơn không?” Cho học sinh thử nghiệm và sửa chữa. Khuyến khích học sinh thử làm một chi tiết nhỏ trước (ví dụ: vẽ mắt con vật, cắt thử một bánh xe...) để giảm bớt áp lực “làm cả mô hình ngay một lúc”. Động viên: “Nếu chưa ưng ý mình có thể làm lại mà — quan trọng là mình đang thử nghiệm.” 5. Luôn khen ngợi nỗ lực và ý tưởng của học sinh. Dù sản phẩm còn vụng về, giáo viên vẫn nên khen ý tưởng của các em. Chẳng hạn: “Thầy thích cách em làm bánh xe tròn bằng nắp chai đấy – rất lạ và độc đáo.” Điều này giúp học sinh thấy giá trị từ việc sáng tạo, chứ không phải chỉ từ việc làm đúng , làm đẹp.</t>
+          <t>Với bài tập “Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.” Tôi sẽ thiết kế kế hoạch bài dạy của tôi với các hoạt động mà học sinh được thực hiện theo nhóm (3 – 5 học sinh/nhóm) 1. Khởi động và gợi mở vấn đề: Tôi cùng học sinh giải mã các câu hỏi sau: “Các em đã bao giờ làm rơi viên phấn chưa?” “Tại sao viên phấn lại dễ vỡ?” “Theo các em, làm thế nào để bảo vệ phấn khi bị rơi từ trên cao?” Những câu hỏi này giúp học sinh liên hệ thực tế và xác định mục tiêu của hoạt động. 2. Thử nghiệm 1: - Học sinh thảo luận nhóm và tự lựa chọn các vật liệu mà các em có để thử nghiệm bài tập này. VD: Dùng khăn giấy quấn quanh viên phấn, dùng hộp bút vải để đựng viên phấn,..... Giao nhiệm vụ: Mỗi nhóm sẽ được cung cấp các vật liệu đơn giản như: giấy, bìa cứng, dây thun, ống hút, xốp mềm, băng dính, ni-long,... Học sinh cần thiết kế một “thiết bị bảo vệ phấn” sao cho viên phấn không bị vỡ khi thả từ độ cao 3 mét. Thực hành và thử nghiệm: Các nhóm thảo luận, thiết kế và lắp ráp mô hình. Sau đó, từng nhóm mang thiết bị ra thử nghiệm bằng cách thả viên phấn từ độ cao quy định và quan sát kết quả. Thảo luận và cải tiến: Học sinh chia sẻ thiết kế, giải thích vì sao thiết bị của mình có thể bảo vệ phấn. Nếu thiết bị chưa hiệu quả, các em được khuyến khích điều chỉnh để thử lại. Thông qua hoạt động này, học sinh sẽ phát triển các năng lực: Tư duy logic và sáng tạo: Vì các em phải vừa tìm ra ý tưởng, vừa giải thích được tính hợp lý của vật liệu. Giải quyết vấn đề thực tiễn: Vận dụng kiến thức về vật lý đơn giản như lực va đập, độ đàn hồi... để bảo vệ vật thể. Kỹ năng làm việc nhóm, giao tiếp và thử sai: Hoạt động giúp các em học cách lắng nghe, điều chỉnh kế hoạch và không ngại thất bại. Đây là một hoạt động STEAM tiêu biểu giúp học sinh rèn luyện tư duy thực tiễn ngay từ lớp 3 một cách hào hứng, hiệu quả và đầy sáng tạo.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -819,18 +819,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Khi học sinh tham gia hoạt động nghệ thuật, việc các em nói: “Em muốn xem ví dụ” là điều thường thấy. Trong tình huống này, tôi sẽ đưa ra một số ví dụ tham khảo đa dạng nhưng không áp đặt hay bắt buộc học sinh phải làm theo mà luôn khuyến khích các em sáng tạo theo ý tưởng riêng của mình. Tôi sẽ nói với học sinh: “Đây là một vài ví dụ để các em tham khảo nhưng mỗi bạn đều có thể có một cách làm khác – miễn là thể hiện được ý tưởng của mình.” “Cái đẹp không chỉ có một kiểu. Quan trọng là con thể hiện được điều con nghĩ bằng cách riêng.” Những cách hỗ trợ cụ thể tôi sử dụng: Tạo môi trường an toàn và khuyến khích thử sai: Tôi luôn nhấn mạnh rằng trong hoạt động nghệ thuật, không có đúng – sai tuyệt đối. Mỗi bạn đều có thể thể hiện ý tưởng theo cách riêng, miễn là có lý do, mục đích rõ ràng. Điều này giúp học sinh bớt lo lắng, mạnh dạn thử nghiệm và phát triển sự tự tin. Đa dạng hóa ví dụ và tài liệu tham khảo: Tôi cung cấp nhiều hình ảnh hoặc sản phẩm mẫu có phong cách khác nhau (về hình dáng, chất liệu, màu sắc...) để học sinh hiểu rằng không chỉ có một cách – từ đó tăng khả năng sáng tạo và tư duy thẩm mỹ cá nhân. Ngoài ra, tôi có thể nhờ các em học sinh khác trong lớp biểu diễn bằng nhiều hình thức khác nhau để khích lệ tinh thần và giảm bớt áp lực, lo lắng cho học sinh. Đề cao ý tưởng cá nhân và năng lực biểu đạt: Tôi luôn ghi nhận và khích lệ những sáng tạo riêng biệt, giúp học sinh cảm thấy ý tưởng của mình được trân trọng. Điều này góp phần nâng cao động lực học tập và phát triển giá trị bản thân – một nền tảng quan trọng trong giáo dục STEAM. →Trong giáo dục STEAM, yếu tố “A” – nghệ thuật – đóng vai trò quan trọng trong việc nuôi dưỡng trí tưởng tượng, khả năng biểu đạt và tư duy đa chiều. Bằng cách hỗ trợ nhẹ nhàng và định hướng hợp lý, giáo viên có thể giúp học sinh vượt qua rào cản tâm lý và phát triển tư duy sáng tạo một cách tự nhiên, bền vững.</t>
+          <t>Trong giáo dục STEAM thường liên quan đến việc tạo ra các sản phẩm có yếu tố nghệ thuật, điều quan trọng không phải là làm đẹp, giống nhau hay đúng theo một mẫu quy định, mà là mỗi bạn có thể thể hiện ý tưởng của mình theo cách riêng. Mỗi sản phẩm đều mang một dấu ấn đặc biệt của người làm ra nó. Nếu các em cảm thấy băn khoăn chưa biết làm thế nào hoặc muốn xem ví dụ, điều đó rất bình thường. Khi chúng ta sáng tạo, ai cũng có lúc chưa biết bắt đầu từ đâu. Nhưng hãy nhớ: mẫu thầy cho các em xem chỉ là gợi ý thôi. Các em có thể từ đó nghĩ thêm và làm khác đi, chọn màu sắc khác, hoặc tạo ra một cách trang trí độc đáo, sáng tạo hơn. Đó chính là tinh thần của STEAM - không sợ sai, không sợ khác biệt, mà chỉ cần dám nghĩ, dám thử và dám sáng tạo.” Những cách hỗ trợ cụ thể để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh: Chuẩn bị nhiều ví dụ đa dạng. Không chỉ một mẫu duy nhất mà là nhiều mẫu khác nhau về hình dạng, màu sắc, vật liệu để học sinh hiểu rằng: một ý tưởng có thể có rất nhiều cách thể hiện. Ví dụ: Với đề tài “làm con cá bằng thùng carton”, có thể có con cá tròn, con cá dài, cá màu đỏ, cá đính vảy từ giấy màu, cá từ nắp chai... Giải thích rõ mục đích của việc xem ví dụ. Nhấn mạnh rằng: “Mình xem mẫu để hiểu cách bắt đầu, nhưng sản phẩm của em sẽ mang dấu ấn riêng mà không ai giống được.” Cách này giúp học sinh bớt lo lắng về việc phải làm giống hệt. Gợi ý bằng câu hỏi mở. Thay vì đưa sẵn đáp án, hãy dẫn dắt bằng các câu hỏi để kích thích ý tưởng: + “Nếu là em, em thích làm con cá màu gì?” + “Em muốn trang trí thêm gì cho con vật/phương tiện của mình để nó khác biệt?” + “Em nghĩ vật liệu nào có thể làm thành cái đuôi đẹp hơn không?” Cho học sinh thử nghiệm và sửa chữa. Khuyến khích học sinh thử làm một chi tiết nhỏ trước (ví dụ: vẽ mắt con vật, cắt thử một bánh xe...) để giảm bớt áp lực “làm cả mô hình ngay một lúc”. Động viên: “Nếu chưa ưng ý mình có thể làm lại mà — quan trọng là mình đang thử nghiệm.” 5. Luôn khen ngợi nỗ lực và ý tưởng của học sinh. Dù sản phẩm còn vụng về, giáo viên vẫn nên khen ý tưởng của các em. Chẳng hạn: “Thầy thích cách em làm bánh xe tròn bằng nắp chai đấy – rất lạ và độc đáo.” Điều này giúp học sinh thấy giá trị từ việc sáng tạo, chứ không phải chỉ từ việc làm đúng , làm đẹp.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.3212809917355372</v>
+        <v>0.2987616099071207</v>
       </c>
       <c r="E7" t="n">
-        <v>0.284115925489144</v>
+        <v>0.2717208309081552</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>chatgpt_4_1_v2_Q4</t>
+          <t>chatgpt_5_1_v1_Q4</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -852,17 +852,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>回答は序論・本論・結論が明確に区分され、同じような構造が繰り返されている点がAI的に見られます。さらに、"Đây là một vài ví dụ" や "mỗi bạn đều có thể có một cách làm khác" などの定型表現が多用され、ポジティブバイアスが強く感じられます。文体は比較的均一で、語彙の幅が狭く、文長もほぼ同じ傾向にあります。具体例として挙げられている内容は、他の学生の回答と重複しやすい典型的なものが多く、peer_similarity_score が 0.38 であることから、他者と似たパターンが見られます。これらの要素を総合すると、完全にAI生成ではないものの、テンプレート的なAI回答の可能性は中程度（約0.55）と判断されます。</t>
+          <t>構造化が明確で序論・本論・結論が整いすぎている点、AIが好む定型表現（"…こうして、…" や "…に挑戦しよう" など）が頻出し、文体も同質的で長文のパターンが多い。さらに、具体例が一般的すぎて他の学生と類似しており、AIテンプレート的な特徴が強く出ているため、完全に人間らしいとは言い難い。</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Khi học sinh tham gia hoạt động nghệ thuật, việc các em nói: “Em muốn xem ví dụ” là điều thường thấy. Trong tình huống này, tôi sẽ đưa ra một số ví dụ tham khảo đa dạng nhưng không áp đặt hay bắt buộc học sinh phải làm theo mà luôn khuyến khích các em sáng tạo theo ý tưởng riêng của mình. Tôi sẽ nói với học sinh: “Đây là một vài ví dụ để các em tham khảo nhưng mỗi bạn đều có thể có một cách làm khác – miễn là thể hiện được ý tưởng của mình.” “Cái đẹp không chỉ có một kiểu. Quan trọng là con thể hiện được điều con nghĩ bằng cách riêng.” Những cách hỗ trợ cụ thể tôi sử dụng: Tạo môi trường an toàn và khuyến khích thử sai: Tôi luôn nhấn mạnh rằng trong hoạt động nghệ thuật, không có đúng – sai tuyệt đối. Mỗi bạn đều có thể thể hiện ý tưởng theo cách riêng, miễn là có lý do, mục đích rõ ràng. Điều này giúp học sinh bớt lo lắng, mạnh dạn thử nghiệm và phát triển sự tự tin. Đa dạng hóa ví dụ và tài liệu tham khảo: Tôi cung cấp nhiều hình ảnh hoặc sản phẩm mẫu có phong cách khác nhau (về hình dáng, chất liệu, màu sắc...) để học sinh hiểu rằng không chỉ có một cách – từ đó tăng khả năng sáng tạo và tư duy thẩm mỹ cá nhân. Ngoài ra, tôi có thể nhờ các em học sinh khác trong lớp biểu diễn bằng nhiều hình thức khác nhau để khích lệ tinh thần và giảm bớt áp lực, lo lắng cho học sinh. Đề cao ý tưởng cá nhân và năng lực biểu đạt: Tôi luôn ghi nhận và khích lệ những sáng tạo riêng biệt, giúp học sinh cảm thấy ý tưởng của mình được trân trọng. Điều này góp phần nâng cao động lực học tập và phát triển giá trị bản thân – một nền tảng quan trọng trong giáo dục STEAM. →Trong giáo dục STEAM, yếu tố “A” – nghệ thuật – đóng vai trò quan trọng trong việc nuôi dưỡng trí tưởng tượng, khả năng biểu đạt và tư duy đa chiều. Bằng cách hỗ trợ nhẹ nhàng và định hướng hợp lý, giáo viên có thể giúp học sinh vượt qua rào cản tâm lý và phát triển tư duy sáng tạo một cách tự nhiên, bền vững.</t>
+          <t>Trong giáo dục STEAM thường liên quan đến việc tạo ra các sản phẩm có yếu tố nghệ thuật, điều quan trọng không phải là làm đẹp, giống nhau hay đúng theo một mẫu quy định, mà là mỗi bạn có thể thể hiện ý tưởng của mình theo cách riêng. Mỗi sản phẩm đều mang một dấu ấn đặc biệt của người làm ra nó. Nếu các em cảm thấy băn khoăn chưa biết làm thế nào hoặc muốn xem ví dụ, điều đó rất bình thường. Khi chúng ta sáng tạo, ai cũng có lúc chưa biết bắt đầu từ đâu. Nhưng hãy nhớ: mẫu thầy cho các em xem chỉ là gợi ý thôi. Các em có thể từ đó nghĩ thêm và làm khác đi, chọn màu sắc khác, hoặc tạo ra một cách trang trí độc đáo, sáng tạo hơn. Đó chính là tinh thần của STEAM - không sợ sai, không sợ khác biệt, mà chỉ cần dám nghĩ, dám thử và dám sáng tạo.” Những cách hỗ trợ cụ thể để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh: Chuẩn bị nhiều ví dụ đa dạng. Không chỉ một mẫu duy nhất mà là nhiều mẫu khác nhau về hình dạng, màu sắc, vật liệu để học sinh hiểu rằng: một ý tưởng có thể có rất nhiều cách thể hiện. Ví dụ: Với đề tài “làm con cá bằng thùng carton”, có thể có con cá tròn, con cá dài, cá màu đỏ, cá đính vảy từ giấy màu, cá từ nắp chai... Giải thích rõ mục đích của việc xem ví dụ. Nhấn mạnh rằng: “Mình xem mẫu để hiểu cách bắt đầu, nhưng sản phẩm của em sẽ mang dấu ấn riêng mà không ai giống được.” Cách này giúp học sinh bớt lo lắng về việc phải làm giống hệt. Gợi ý bằng câu hỏi mở. Thay vì đưa sẵn đáp án, hãy dẫn dắt bằng các câu hỏi để kích thích ý tưởng: + “Nếu là em, em thích làm con cá màu gì?” + “Em muốn trang trí thêm gì cho con vật/phương tiện của mình để nó khác biệt?” + “Em nghĩ vật liệu nào có thể làm thành cái đuôi đẹp hơn không?” Cho học sinh thử nghiệm và sửa chữa. Khuyến khích học sinh thử làm một chi tiết nhỏ trước (ví dụ: vẽ mắt con vật, cắt thử một bánh xe...) để giảm bớt áp lực “làm cả mô hình ngay một lúc”. Động viên: “Nếu chưa ưng ý mình có thể làm lại mà — quan trọng là mình đang thử nghiệm.” 5. Luôn khen ngợi nỗ lực và ý tưởng của học sinh. Dù sản phẩm còn vụng về, giáo viên vẫn nên khen ý tưởng của các em. Chẳng hạn: “Thầy thích cách em làm bánh xe tròn bằng nắp chai đấy – rất lạ và độc đáo.” Điều này giúp học sinh thấy giá trị từ việc sáng tạo, chứ không phải chỉ từ việc làm đúng , làm đẹp.</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Khi học sinh tham gia hoạt động nghệ thuật, việc các em nói: “Em muốn xem ví dụ” là điều thường thấy. Trong tình huống này, tôi sẽ đưa ra một số ví dụ tham khảo đa dạng nhưng không áp đặt hay bắt buộc học sinh phải làm theo mà luôn khuyến khích các em sáng tạo theo ý tưởng riêng của mình. Tôi sẽ nói với học sinh: “Đây là một vài ví dụ để các em tham khảo nhưng mỗi bạn đều có thể có một cách làm khác – miễn là thể hiện được ý tưởng của mình.” “Cái đẹp không chỉ có một kiểu. Quan trọng là con thể hiện được điều con nghĩ bằng cách riêng.” Những cách hỗ trợ cụ thể tôi sử dụng: Tạo môi trường an toàn và khuyến khích thử sai: Tôi luôn nhấn mạnh rằng trong hoạt động nghệ thuật, không có đúng – sai tuyệt đối. Mỗi bạn đều có thể thể hiện ý tưởng theo cách riêng, miễn là có lý do, mục đích rõ ràng. Điều này giúp học sinh bớt lo lắng, mạnh dạn thử nghiệm và phát triển sự tự tin. Đa dạng hóa ví dụ và tài liệu tham khảo: Tôi cung cấp nhiều hình ảnh hoặc sản phẩm mẫu có phong cách khác nhau (về hình dáng, chất liệu, màu sắc...) để học sinh hiểu rằng không chỉ có một cách – từ đó tăng khả năng sáng tạo và tư duy thẩm mỹ cá nhân. Ngoài ra, tôi có thể nhờ các em học sinh khác trong lớp biểu diễn bằng nhiều hình thức khác nhau để khích lệ tinh thần và giảm bớt áp lực, lo lắng cho học sinh. Đề cao ý tưởng cá nhân và năng lực biểu đạt: Tôi luôn ghi nhận và khích lệ những sáng tạo riêng biệt, giúp học sinh cảm thấy ý tưởng của mình được trân trọng. Điều này góp phần nâng cao động lực học tập và phát triển giá trị bản thân – một nền tảng quan trọng trong giáo dục STEAM. →Trong giáo dục STEAM, yếu tố “A” – nghệ thuật – đóng vai trò quan trọng trong việc nuôi dưỡng trí tưởng tượng, khả năng biểu đạt và tư duy đa chiều. Bằng cách hỗ trợ nhẹ nhàng và định hướng hợp lý, giáo viên có thể giúp học sinh vượt qua rào cản tâm lý và phát triển tư duy sáng tạo một cách tự nhiên, bền vững.</t>
+          <t>Trong giáo dục STEAM thường liên quan đến việc tạo ra các sản phẩm có yếu tố nghệ thuật, điều quan trọng không phải là làm đẹp, giống nhau hay đúng theo một mẫu quy định, mà là mỗi bạn có thể thể hiện ý tưởng của mình theo cách riêng. Mỗi sản phẩm đều mang một dấu ấn đặc biệt của người làm ra nó. Nếu các em cảm thấy băn khoăn chưa biết làm thế nào hoặc muốn xem ví dụ, điều đó rất bình thường. Khi chúng ta sáng tạo, ai cũng có lúc chưa biết bắt đầu từ đâu. Nhưng hãy nhớ: mẫu thầy cho các em xem chỉ là gợi ý thôi. Các em có thể từ đó nghĩ thêm và làm khác đi, chọn màu sắc khác, hoặc tạo ra một cách trang trí độc đáo, sáng tạo hơn. Đó chính là tinh thần của STEAM - không sợ sai, không sợ khác biệt, mà chỉ cần dám nghĩ, dám thử và dám sáng tạo.” Những cách hỗ trợ cụ thể để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh: Chuẩn bị nhiều ví dụ đa dạng. Không chỉ một mẫu duy nhất mà là nhiều mẫu khác nhau về hình dạng, màu sắc, vật liệu để học sinh hiểu rằng: một ý tưởng có thể có rất nhiều cách thể hiện. Ví dụ: Với đề tài “làm con cá bằng thùng carton”, có thể có con cá tròn, con cá dài, cá màu đỏ, cá đính vảy từ giấy màu, cá từ nắp chai... Giải thích rõ mục đích của việc xem ví dụ. Nhấn mạnh rằng: “Mình xem mẫu để hiểu cách bắt đầu, nhưng sản phẩm của em sẽ mang dấu ấn riêng mà không ai giống được.” Cách này giúp học sinh bớt lo lắng về việc phải làm giống hệt. Gợi ý bằng câu hỏi mở. Thay vì đưa sẵn đáp án, hãy dẫn dắt bằng các câu hỏi để kích thích ý tưởng: + “Nếu là em, em thích làm con cá màu gì?” + “Em muốn trang trí thêm gì cho con vật/phương tiện của mình để nó khác biệt?” + “Em nghĩ vật liệu nào có thể làm thành cái đuôi đẹp hơn không?” Cho học sinh thử nghiệm và sửa chữa. Khuyến khích học sinh thử làm một chi tiết nhỏ trước (ví dụ: vẽ mắt con vật, cắt thử một bánh xe...) để giảm bớt áp lực “làm cả mô hình ngay một lúc”. Động viên: “Nếu chưa ưng ý mình có thể làm lại mà — quan trọng là mình đang thử nghiệm.” 5. Luôn khen ngợi nỗ lực và ý tưởng của học sinh. Dù sản phẩm còn vụng về, giáo viên vẫn nên khen ý tưởng của các em. Chẳng hạn: “Thầy thích cách em làm bánh xe tròn bằng nắp chai đấy – rất lạ và độc đáo.” Điều này giúp học sinh thấy giá trị từ việc sáng tạo, chứ không phải chỉ từ việc làm đúng , làm đẹp.</t>
         </is>
       </c>
     </row>
@@ -874,27 +874,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sử dụng vật liệu tái chế trong dạy học Chủ đề: Làm hộp bút từ chai nhựa cũ Môn học: Tự nhiên và Xã hội (lớp 3) hoặc Khoa học (lớp 4–5) Mục tiêu: Học sinh hiểu được lợi ích của việc tái sử dụng rác thải nhựa. Biết cách thiết kế một sản phẩm hữu ích từ đồ bỏ đi. Phát triển tư duy sáng tạo, kỹ năng giải quyết vấn đề và ý thức bảo vệ môi trường. Hoạt động dạy học: 1. Khởi động – Gợi vấn đề: GV đặt câu hỏi: “Mỗi năm chúng ta thải ra rất nhiều chai nhựa, nếu không tái chế thì chuyện gì sẽ xảy ra với môi trường?” “Chai nhựa bỏ đi có thể biến thành đồ dùng học tập gì?” Khám phá – Thiết kế: Học sinh quan sát một số mẫu hộp bút tái chế từ chai nhựa. Làm việc nhóm, phác thảo thiết kế hộp bút riêng: hình dạng, màu sắc, cách đóng mở nắp... Liệt kê vật liệu: chai nhựa, kéo, băng keo màu, khóa kéo, nút nhựa,... Chế tạo sản phẩm: Các nhóm tiến hành cắt, dán, gắn khóa kéo để tạo thành hộp bút theo thiết kế. Ghi lại những điều chỉnh khi gặp khó khăn (ví dụ: miệng hộp không khép kín, vật liệu dễ rách...). Trình bày và phản hồi: Mỗi nhóm giới thiệu sản phẩm và nêu cách sử dụng, điểm hay của thiết kế. Kết nối mở rộng: 3790950454346GV tổng kết: “Chúng ta đã học cách tái chế để tạo ra vật dụng hữu ích – vừa tiết kiệm, vừa bảo vệ môi trường. Đây chính là một hành động nhỏ nhưng ý nghĩa lớn.” Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp;amp; giải quyết vấn đề: Thiết kế sản phẩm từ vật liệu quen thuộc. Hợp tác và giao tiếp: Làm việc nhóm để hoàn thành sản phẩm. Ý thức môi trường: Hiểu giá trị của tái chế, giảm rác thải nhựa. Kết nối liên môn: Tự nhiên và Xã hội (hiểu môi trường) – Mỹ thuật (trang trí) – Công nghệ (chế tạo).</t>
+          <t>Trong lớp học của tôi, tôi đã thiết kế một hoạt động mang tên “Chia sẻ cùng Cô”. Đây là hoạt động mà vào đầu giờ học, mỗi học sinh sẽ lần lượt chia sẻ một điều thú vị, một khó khăn trong học tập, hoặc một ý tưởng nhỏ giúp lớp học trở nên vui hơn – ví dụ như hôm nay sắp xếp bàn ghế thế nào để tham gia các hoạt động trải nghiệm hay cách nhắc nhau giữ trật tự khi cô ra ngoài hoặc có thể chia sẻ một câu chuyện vui mà mình vừa trải qua. Đây là thời gian học sinh tôi rất yêu thích và cách tôi bắt đầu một ngày học tập của các em tích cực, vui vẻ hơn thay vì nếu ra các quy tắc kỷ luật. Hoạt động này đơn giản nhưng giúp học sinh phát triển nhiều kỹ năng quan trọng như: Kỹ năng giao tiếp và biểu đạt ý tưởng: Các em được trình bày suy nghĩ trước tập thể. Tư duy phản biện và lắng nghe tích cực: Các em học cách lắng nghe bạn mình nói và phản hồi một cách xây dựng. Tính chủ động và sáng tạo: Khi các em tự nghĩ ra giải pháp để lớp học vui hơn, gọn gàng hơn hoặc học hiệu quả hơn. Tôi nhận thấy sau một thời gian, học sinh mạnh dạn hơn, biết chia sẻ, biết quan tâm đến bạn bè và tích cực đề xuất ý tưởng để cải thiện lớp học. Đây là cách giúp các em kết nối cuộc sống với việc học, rèn luyện kỹ năng thực tiễn và hình thành năng lực giải quyết vấn đề – đúng với tinh thần giáo dục STEAM và phát triển năng lực học sinh. Hình ảnh minh họa một số đề xuất của các em học sinh được tôi thực hiện:</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2512254901960784</v>
+        <v>0.248513674197384</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2153602118459444</v>
+        <v>0.2331442731271534</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>gemini2_5_pro_v1_Q5</t>
+          <t>chatgpt_4_1_v2_Q2</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.325309992706054</v>
+        <v>0.2698511166253102</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.325309992706054</v>
+        <v>0.2698511166253102</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -912,139 +912,79 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>The response is highly organized with distinct sections (introduction, activity, skills, cross‑disciplinary links) and uses bullet points, which is a hallmark of AI‑generated templates. The low AI similarity score (0.25) and moderate peer similarity (0.33) indicate that the content is not a direct copy of a known AI answer and shares some common ideas with other students, suggesting originality. The language is uniform—sentences are of similar length and vocabulary is repeated—supporting a template feel. However, the specific example of making a pencil case from recycled plastic bottles is a typical, widely used teaching scenario, not a unique AI invention. Overall, these factors point to a moderate likelihood of AI influence, hence a score of 0.45.</t>
+          <t>回答は序論・本論・結論が明確に区分され、語彙が統一されているため構造化が強く、AIが好むテンプレート構成に近い。定型表現（「hình ảnh minh họa」「đúng với tinh thần giáo dục STEAM」など）が多用され、ポジティブバイアスが感じられる。文の長さや語彙の選び方に均一性があり、他の学生と類似した具体例（学級のルールや共有活動）が示されている点もAIがよく作る典型的な例と重なる。AI類似度が0.25、仲間間類似度が0.27で、完全に人間らしい独自性は低めだが、完全にAIであるとは言い切れないため、0.45という中程度のスコアと判断した。</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Sử dụng vật liệu tái chế trong dạy học Chủ đề: Làm hộp bút từ chai nhựa cũ Môn học: Tự nhiên và Xã hội (lớp 3) hoặc Khoa học (lớp 4–5) Mục tiêu: Học sinh hiểu được lợi ích của việc tái sử dụng rác thải nhựa. Biết cách thiết kế một sản phẩm hữu ích từ đồ bỏ đi. Phát triển tư duy sáng tạo, kỹ năng giải quyết vấn đề và ý thức bảo vệ môi trường. Hoạt động dạy học: 1. Khởi động – Gợi vấn đề: GV đặt câu hỏi: “Mỗi năm chúng ta thải ra rất nhiều chai nhựa, nếu không tái chế thì chuyện gì sẽ xảy ra với môi trường?” “Chai nhựa bỏ đi có thể biến thành đồ dùng học tập gì?” Khám phá – Thiết kế: Học sinh quan sát một số mẫu hộp bút tái chế từ chai nhựa. Làm việc nhóm, phác thảo thiết kế hộp bút riêng: hình dạng, màu sắc, cách đóng mở nắp... Liệt kê vật liệu: chai nhựa, kéo, băng keo màu, khóa kéo, nút nhựa,... Chế tạo sản phẩm: Các nhóm tiến hành cắt, dán, gắn khóa kéo để tạo thành hộp bút theo thiết kế. Ghi lại những điều chỉnh khi gặp khó khăn (ví dụ: miệng hộp không khép kín, vật liệu dễ rách...). Trình bày và phản hồi: Mỗi nhóm giới thiệu sản phẩm và nêu cách sử dụng, điểm hay của thiết kế. Kết nối mở rộng: 3790950454346GV tổng kết: “Chúng ta đã học cách tái chế để tạo ra vật dụng hữu ích – vừa tiết kiệm, vừa bảo vệ môi trường. Đây chính là một hành động nhỏ nhưng ý nghĩa lớn.” Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp;amp; giải quyết vấn đề: Thiết kế sản phẩm từ vật liệu quen thuộc. Hợp tác và giao tiếp: Làm việc nhóm để hoàn thành sản phẩm. Ý thức môi trường: Hiểu giá trị của tái chế, giảm rác thải nhựa. Kết nối liên môn: Tự nhiên và Xã hội (hiểu môi trường) – Mỹ thuật (trang trí) – Công nghệ (chế tạo).</t>
+          <t>Trong lớp học của tôi, tôi đã thiết kế một hoạt động mang tên “Chia sẻ cùng Cô”. Đây là hoạt động mà vào đầu giờ học, mỗi học sinh sẽ lần lượt chia sẻ một điều thú vị, một khó khăn trong học tập, hoặc một ý tưởng nhỏ giúp lớp học trở nên vui hơn – ví dụ như hôm nay sắp xếp bàn ghế thế nào để tham gia các hoạt động trải nghiệm hay cách nhắc nhau giữ trật tự khi cô ra ngoài hoặc có thể chia sẻ một câu chuyện vui mà mình vừa trải qua. Đây là thời gian học sinh tôi rất yêu thích và cách tôi bắt đầu một ngày học tập của các em tích cực, vui vẻ hơn thay vì nếu ra các quy tắc kỷ luật. Hoạt động này đơn giản nhưng giúp học sinh phát triển nhiều kỹ năng quan trọng như: Kỹ năng giao tiếp và biểu đạt ý tưởng: Các em được trình bày suy nghĩ trước tập thể. Tư duy phản biện và lắng nghe tích cực: Các em học cách lắng nghe bạn mình nói và phản hồi một cách xây dựng. Tính chủ động và sáng tạo: Khi các em tự nghĩ ra giải pháp để lớp học vui hơn, gọn gàng hơn hoặc học hiệu quả hơn. Tôi nhận thấy sau một thời gian, học sinh mạnh dạn hơn, biết chia sẻ, biết quan tâm đến bạn bè và tích cực đề xuất ý tưởng để cải thiện lớp học. Đây là cách giúp các em kết nối cuộc sống với việc học, rèn luyện kỹ năng thực tiễn và hình thành năng lực giải quyết vấn đề – đúng với tinh thần giáo dục STEAM và phát triển năng lực học sinh. Hình ảnh minh họa một số đề xuất của các em học sinh được tôi thực hiện:</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Sử dụng vật liệu tái chế trong dạy học Chủ đề: Làm hộp bút từ chai nhựa cũ Môn học: Tự nhiên và Xã hội (lớp 3) hoặc Khoa học (lớp 4–5) Mục tiêu: Học sinh hiểu được lợi ích của việc tái sử dụng rác thải nhựa. Biết cách thiết kế một sản phẩm hữu ích từ đồ bỏ đi. Phát triển tư duy sáng tạo, kỹ năng giải quyết vấn đề và ý thức bảo vệ môi trường. Hoạt động dạy học: 1. Khởi động – Gợi vấn đề: GV đặt câu hỏi: “Mỗi năm chúng ta thải ra rất nhiều chai nhựa, nếu không tái chế thì chuyện gì sẽ xảy ra với môi trường?” “Chai nhựa bỏ đi có thể biến thành đồ dùng học tập gì?” Khám phá – Thiết kế: Học sinh quan sát một số mẫu hộp bút tái chế từ chai nhựa. Làm việc nhóm, phác thảo thiết kế hộp bút riêng: hình dạng, màu sắc, cách đóng mở nắp... Liệt kê vật liệu: chai nhựa, kéo, băng keo màu, khóa kéo, nút nhựa,... Chế tạo sản phẩm: Các nhóm tiến hành cắt, dán, gắn khóa kéo để tạo thành hộp bút theo thiết kế. Ghi lại những điều chỉnh khi gặp khó khăn (ví dụ: miệng hộp không khép kín, vật liệu dễ rách...). Trình bày và phản hồi: Mỗi nhóm giới thiệu sản phẩm và nêu cách sử dụng, điểm hay của thiết kế. Kết nối mở rộng: 3790950454346GV tổng kết: “Chúng ta đã học cách tái chế để tạo ra vật dụng hữu ích – vừa tiết kiệm, vừa bảo vệ môi trường. Đây chính là một hành động nhỏ nhưng ý nghĩa lớn.” Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp;amp; giải quyết vấn đề: Thiết kế sản phẩm từ vật liệu quen thuộc. Hợp tác và giao tiếp: Làm việc nhóm để hoàn thành sản phẩm. Ý thức môi trường: Hiểu giá trị của tái chế, giảm rác thải nhựa. Kết nối liên môn: Tự nhiên và Xã hội (hiểu môi trường) – Mỹ thuật (trang trí) – Công nghệ (chế tạo).</t>
+          <t>Trong lớp học của tôi, tôi đã thiết kế một hoạt động mang tên “Chia sẻ cùng Cô”. Đây là hoạt động mà vào đầu giờ học, mỗi học sinh sẽ lần lượt chia sẻ một điều thú vị, một khó khăn trong học tập, hoặc một ý tưởng nhỏ giúp lớp học trở nên vui hơn – ví dụ như hôm nay sắp xếp bàn ghế thế nào để tham gia các hoạt động trải nghiệm hay cách nhắc nhau giữ trật tự khi cô ra ngoài hoặc có thể chia sẻ một câu chuyện vui mà mình vừa trải qua. Đây là thời gian học sinh tôi rất yêu thích và cách tôi bắt đầu một ngày học tập của các em tích cực, vui vẻ hơn thay vì nếu ra các quy tắc kỷ luật. Hoạt động này đơn giản nhưng giúp học sinh phát triển nhiều kỹ năng quan trọng như: Kỹ năng giao tiếp và biểu đạt ý tưởng: Các em được trình bày suy nghĩ trước tập thể. Tư duy phản biện và lắng nghe tích cực: Các em học cách lắng nghe bạn mình nói và phản hồi một cách xây dựng. Tính chủ động và sáng tạo: Khi các em tự nghĩ ra giải pháp để lớp học vui hơn, gọn gàng hơn hoặc học hiệu quả hơn. Tôi nhận thấy sau một thời gian, học sinh mạnh dạn hơn, biết chia sẻ, biết quan tâm đến bạn bè và tích cực đề xuất ý tưởng để cải thiện lớp học. Đây là cách giúp các em kết nối cuộc sống với việc học, rèn luyện kỹ năng thực tiễn và hình thành năng lực giải quyết vấn đề – đúng với tinh thần giáo dục STEAM và phát triển năng lực học sinh. Hình ảnh minh họa một số đề xuất của các em học sinh được tôi thực hiện:</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>Trong lớp học của tôi, tôi đã thiết kế một hoạt động mang tên “Chia sẻ cùng Cô”. Đây là hoạt động mà vào đầu giờ học, mỗi học sinh sẽ lần lượt chia sẻ một điều thú vị, một khó khăn trong học tập, hoặc một ý tưởng nhỏ giúp lớp học trở nên vui hơn – ví dụ như hôm nay sắp xếp bàn ghế thế nào để tham gia các hoạt động trải nghiệm hay cách nhắc nhau giữ trật tự khi cô ra ngoài hoặc có thể chia sẻ một câu chuyện vui mà mình vừa trải qua. Đây là thời gian học sinh tôi rất yêu thích và cách tôi bắt đầu một ngày học tập của các em tích cực, vui vẻ hơn thay vì nếu ra các quy tắc kỷ luật. Hoạt động này đơn giản nhưng giúp học sinh phát triển nhiều kỹ năng quan trọng như: Kỹ năng giao tiếp và biểu đạt ý tưởng: Các em được trình bày suy nghĩ trước tập thể. Tư duy phản biện và lắng nghe tích cực: Các em học cách lắng nghe bạn mình nói và phản hồi một cách xây dựng. Tính chủ động và sáng tạo: Khi các em tự nghĩ ra giải pháp để lớp học vui hơn, gọn gàng hơn hoặc học hiệu quả hơn. Tôi nhận thấy sau một thời gian, học sinh mạnh dạn hơn, biết chia sẻ, biết quan tâm đến bạn bè và tích cực đề xuất ý tưởng để cải thiện lớp học. Đây là cách giúp các em kết nối cuộc sống với việc học, rèn luyện kỹ năng thực tiễn và hình thành năng lực giải quyết vấn đề – đúng với tinh thần giáo dục STEAM và phát triển năng lực học sinh. Hình ảnh minh họa một số đề xuất của các em học sinh được tôi thực hiện:</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.248513674197384</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2331442731271534</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>chatgpt_4_1_v2_Q2</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.2698511166253102</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.2698511166253102</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>構造化は序論・本論・結論が明確に区分されており、AIがよく用いるテンプレート的な構成に近い。定型表現として「được tôi thực hiện」「đúng với tinh thần giáo dục STEAM」など、ポジティブバイアスが散見される。文体は比較的均一で、語彙の幅が限定的である点もAIらしさを示唆する。具体例は一般的なクラス活動の説明であり、他の学生と類似度が低いものの、典型的な内容が多いため、完全に人間らしい創造性はやや不足している。総合的に見て、AI生成の可能性は中程度と判断。</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Trong lớp học của tôi, tôi đã thiết kế một hoạt động mang tên “Chia sẻ cùng Cô”. Đây là hoạt động mà vào đầu giờ học, mỗi học sinh sẽ lần lượt chia sẻ một điều thú vị, một khó khăn trong học tập, hoặc một ý tưởng nhỏ giúp lớp học trở nên vui hơn – ví dụ như hôm nay sắp xếp bàn ghế thế nào để tham gia các hoạt động trải nghiệm hay cách nhắc nhau giữ trật tự khi cô ra ngoài hoặc có thể chia sẻ một câu chuyện vui mà mình vừa trải qua. Đây là thời gian học sinh tôi rất yêu thích và cách tôi bắt đầu một ngày học tập của các em tích cực, vui vẻ hơn thay vì nếu ra các quy tắc kỷ luật. Hoạt động này đơn giản nhưng giúp học sinh phát triển nhiều kỹ năng quan trọng như: Kỹ năng giao tiếp và biểu đạt ý tưởng: Các em được trình bày suy nghĩ trước tập thể. Tư duy phản biện và lắng nghe tích cực: Các em học cách lắng nghe bạn mình nói và phản hồi một cách xây dựng. Tính chủ động và sáng tạo: Khi các em tự nghĩ ra giải pháp để lớp học vui hơn, gọn gàng hơn hoặc học hiệu quả hơn. Tôi nhận thấy sau một thời gian, học sinh mạnh dạn hơn, biết chia sẻ, biết quan tâm đến bạn bè và tích cực đề xuất ý tưởng để cải thiện lớp học. Đây là cách giúp các em kết nối cuộc sống với việc học, rèn luyện kỹ năng thực tiễn và hình thành năng lực giải quyết vấn đề – đúng với tinh thần giáo dục STEAM và phát triển năng lực học sinh. Hình ảnh minh họa một số đề xuất của các em học sinh được tôi thực hiện:</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Trong lớp học của tôi, tôi đã thiết kế một hoạt động mang tên “Chia sẻ cùng Cô”. Đây là hoạt động mà vào đầu giờ học, mỗi học sinh sẽ lần lượt chia sẻ một điều thú vị, một khó khăn trong học tập, hoặc một ý tưởng nhỏ giúp lớp học trở nên vui hơn – ví dụ như hôm nay sắp xếp bàn ghế thế nào để tham gia các hoạt động trải nghiệm hay cách nhắc nhau giữ trật tự khi cô ra ngoài hoặc có thể chia sẻ một câu chuyện vui mà mình vừa trải qua. Đây là thời gian học sinh tôi rất yêu thích và cách tôi bắt đầu một ngày học tập của các em tích cực, vui vẻ hơn thay vì nếu ra các quy tắc kỷ luật. Hoạt động này đơn giản nhưng giúp học sinh phát triển nhiều kỹ năng quan trọng như: Kỹ năng giao tiếp và biểu đạt ý tưởng: Các em được trình bày suy nghĩ trước tập thể. Tư duy phản biện và lắng nghe tích cực: Các em học cách lắng nghe bạn mình nói và phản hồi một cách xây dựng. Tính chủ động và sáng tạo: Khi các em tự nghĩ ra giải pháp để lớp học vui hơn, gọn gàng hơn hoặc học hiệu quả hơn. Tôi nhận thấy sau một thời gian, học sinh mạnh dạn hơn, biết chia sẻ, biết quan tâm đến bạn bè và tích cực đề xuất ý tưởng để cải thiện lớp học. Đây là cách giúp các em kết nối cuộc sống với việc học, rèn luyện kỹ năng thực tiễn và hình thành năng lực giải quyết vấn đề – đúng với tinh thần giáo dục STEAM và phát triển năng lực học sinh. Hình ảnh minh họa một số đề xuất của các em học sinh được tôi thực hiện:</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>Hoạt động: "Sáng tạo các mô hình phương tiện giao thông &amp;amp; con vật từ lịch để bàn, bìa tạp chí hoặc thùng carton đã qua sử dụng." 1. Mục tiêu: Nâng cao kỹ năng tư duy thiết kế (Design Thinking). Rèn luyện kỹ năng cắt, dán, lắp ghép mô hình. Hiểu biết cơ bản về phương tiện giao thông và các loài động vật. Tái chế, bảo vệ môi trường và ứng dụng vật liệu tái sử dụng vào sáng tạo. 2. Nội dung - Học sinh sẽ sử dụng giấy bìa cứng, bìa tạp chí, lịch để bàn đã qua sử dụng, thùng giấy carton cũ kết hợp với các vật liệu tái chế khác để thiết kế và lắp ghép mô hình: + Các loại phương tiện giao thông: xe buýt, xe máy, máy bay, thuyền, ô tô... + Các con vật quen thuộc: chó, mèo, cá, voi, chim, rùa, ... 3. Các hoạt động chính 3.1. Khởi động Tạo hứng thú, kết nối bài học với thực tế. Cách thực hiện: Giáo viên cho học sinh xem tranh ảnh/video ngắn về các loại phương tiện giao thông và các con vật quen thuộc. Đặt câu hỏi gợi mở: + Em đã biết được những phương tiện giao thông nào? + Con vật nào em yêu thích nhất? Vì sao? Học sinh chia sẻ ý kiến, tạo không khí vui vẻ, hứng thú. 3.2. Khám phá Học sinh tự tìm hiểu, nhận diện và hình thành ý tưởng sáng tạo. Cách thực hiện: - Giáo viên hướng dẫn học sinh quan sát tranh mẫu các phương tiện, con vật và giới thiệu vật liệu tái chế có thể sử dụng (thùng carton, chai nhựa, ống hút...) - Học sinh: + Chọn đối tượng muốn làm (1 phương tiện hoặc 1 con vật). + Chia nhóm, phân công nhiệm vụ cho các thành viên trong nhóm. + Vẽ phác thảo ý tưởng ra giấy. + Liệt kê các nguyên liệu cần thiết để làm mô hình. 3.3. Luyện tập – Thực hành Học sinh vận dụng kiến thức, kỹ năng để chế tạo sản phẩm. Cách thực hiện: Học sinh thực hành: + Cắt, dán, ghép các vật liệu đã chuẩn bị để tạo thành mô hình. + Trang trí, tô màu cho mô hình thêm sinh động. Giáo viên quan sát, hỗ trợ kỹ thuật cắt dán an toàn, góp ý về ý tưởng và kết cấu mô hình. 3.4. Vận dụng – Mở rộng Học sinh vận dụng sản phẩm vào hoạt động thực tế và phát triển năng lực thuyết trình, hợp tác. Cách thực hiện: Học sinh trưng bày sản phẩm. Đại diện từng nhóm/cá nhân giới thiệu về sản phẩm: + Tên mô hình. + Vật liệu sử dụng. + Cách làm và điều thú vị của sản phẩm. Giáo viên và học sinh nhận xét, tuyên dương sản phẩm sáng tạo, độc đáo. Một số sản phẩm mẫu giáo viên đã thực hiện
 Hình ảnh mô hình xe đạp Hình ảnh mô hình thuyền buồm
 Hình ảnh mô hình các con vật sống dưới nước Hình ảnh mô hình con chó</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D9" t="n">
         <v>0.2365591397849462</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E9" t="n">
         <v>0.2031434917960897</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>gemini2_5_pro_v1_Q5</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G9" t="n">
         <v>0.325309992706054</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>S002</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>S002</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0.325309992706054</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>構造化がやや整っており、序論・本論・結論の区分が明確に示されている点はAIがよく用いるパターンに近い。定型表現（例：『Nâng cao kỹ năng tư duy thiết kế』、『Tái chế, bảo vệ môi trường』）やポジティブバイアスが散見され、文体の均一性も比較的高い。具体例は一般的な教材内容であり、他の学生と類似しやすい典型的な構成であるため、peer_similarity_scoreも中程度。総合すると、完全にAIっぽいわけではないが、テンプレート的な傾向があると判断し、0.42と評価した。</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>構造化がやや整っているものの、序論・本論・結論の明確な区分はなく、ほぼ列挙型の構成である。定型表現（"Khởi động"、"Khám phá"、"Luyện tập"など）はAI的なパターンが見られるが、同時に一般的な教材用語であるためポジティブバイアスは限定的。文体は均一で、長文が多いものの語彙は限定的で機械的な印象を与える。具体例（交通手段・動物のリスト）は典型的で、他学生と似た内容が多い。これらを総合すると、AI生成テンプレート的解答の可能性は中程度（0.45）と判断する。</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Hoạt động: "Sáng tạo các mô hình phương tiện giao thông &amp;amp; con vật từ lịch để bàn, bìa tạp chí hoặc thùng carton đã qua sử dụng." 1. Mục tiêu: Nâng cao kỹ năng tư duy thiết kế (Design Thinking). Rèn luyện kỹ năng cắt, dán, lắp ghép mô hình. Hiểu biết cơ bản về phương tiện giao thông và các loài động vật. Tái chế, bảo vệ môi trường và ứng dụng vật liệu tái sử dụng vào sáng tạo. 2. Nội dung - Học sinh sẽ sử dụng giấy bìa cứng, bìa tạp chí, lịch để bàn đã qua sử dụng, thùng giấy carton cũ kết hợp với các vật liệu tái chế khác để thiết kế và lắp ghép mô hình: + Các loại phương tiện giao thông: xe buýt, xe máy, máy bay, thuyền, ô tô... + Các con vật quen thuộc: chó, mèo, cá, voi, chim, rùa, ... 3. Các hoạt động chính 3.1. Khởi động Tạo hứng thú, kết nối bài học với thực tế. Cách thực hiện: Giáo viên cho học sinh xem tranh ảnh/video ngắn về các loại phương tiện giao thông và các con vật quen thuộc. Đặt câu hỏi gợi mở: + Em đã biết được những phương tiện giao thông nào? + Con vật nào em yêu thích nhất? Vì sao? Học sinh chia sẻ ý kiến, tạo không khí vui vẻ, hứng thú. 3.2. Khám phá Học sinh tự tìm hiểu, nhận diện và hình thành ý tưởng sáng tạo. Cách thực hiện: - Giáo viên hướng dẫn học sinh quan sát tranh mẫu các phương tiện, con vật và giới thiệu vật liệu tái chế có thể sử dụng (thùng carton, chai nhựa, ống hút...) - Học sinh: + Chọn đối tượng muốn làm (1 phương tiện hoặc 1 con vật). + Chia nhóm, phân công nhiệm vụ cho các thành viên trong nhóm. + Vẽ phác thảo ý tưởng ra giấy. + Liệt kê các nguyên liệu cần thiết để làm mô hình. 3.3. Luyện tập – Thực hành Học sinh vận dụng kiến thức, kỹ năng để chế tạo sản phẩm. Cách thực hiện: Học sinh thực hành: + Cắt, dán, ghép các vật liệu đã chuẩn bị để tạo thành mô hình. + Trang trí, tô màu cho mô hình thêm sinh động. Giáo viên quan sát, hỗ trợ kỹ thuật cắt dán an toàn, góp ý về ý tưởng và kết cấu mô hình. 3.4. Vận dụng – Mở rộng Học sinh vận dụng sản phẩm vào hoạt động thực tế và phát triển năng lực thuyết trình, hợp tác. Cách thực hiện: Học sinh trưng bày sản phẩm. Đại diện từng nhóm/cá nhân giới thiệu về sản phẩm: + Tên mô hình. + Vật liệu sử dụng. + Cách làm và điều thú vị của sản phẩm. Giáo viên và học sinh nhận xét, tuyên dương sản phẩm sáng tạo, độc đáo. Một số sản phẩm mẫu giáo viên đã thực hiện
 Hình ảnh mô hình xe đạp Hình ảnh mô hình thuyền buồm
 Hình ảnh mô hình các con vật sống dưới nước Hình ảnh mô hình con chó</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Hoạt động: "Sáng tạo các mô hình phương tiện giao thông &amp;amp; con vật từ lịch để bàn, bìa tạp chí hoặc thùng carton đã qua sử dụng." 1. Mục tiêu: Nâng cao kỹ năng tư duy thiết kế (Design Thinking). Rèn luyện kỹ năng cắt, dán, lắp ghép mô hình. Hiểu biết cơ bản về phương tiện giao thông và các loài động vật. Tái chế, bảo vệ môi trường và ứng dụng vật liệu tái sử dụng vào sáng tạo. 2. Nội dung - Học sinh sẽ sử dụng giấy bìa cứng, bìa tạp chí, lịch để bàn đã qua sử dụng, thùng giấy carton cũ kết hợp với các vật liệu tái chế khác để thiết kế và lắp ghép mô hình: + Các loại phương tiện giao thông: xe buýt, xe máy, máy bay, thuyền, ô tô... + Các con vật quen thuộc: chó, mèo, cá, voi, chim, rùa, ... 3. Các hoạt động chính 3.1. Khởi động Tạo hứng thú, kết nối bài học với thực tế. Cách thực hiện: Giáo viên cho học sinh xem tranh ảnh/video ngắn về các loại phương tiện giao thông và các con vật quen thuộc. Đặt câu hỏi gợi mở: + Em đã biết được những phương tiện giao thông nào? + Con vật nào em yêu thích nhất? Vì sao? Học sinh chia sẻ ý kiến, tạo không khí vui vẻ, hứng thú. 3.2. Khám phá Học sinh tự tìm hiểu, nhận diện và hình thành ý tưởng sáng tạo. Cách thực hiện: - Giáo viên hướng dẫn học sinh quan sát tranh mẫu các phương tiện, con vật và giới thiệu vật liệu tái chế có thể sử dụng (thùng carton, chai nhựa, ống hút...) - Học sinh: + Chọn đối tượng muốn làm (1 phương tiện hoặc 1 con vật). + Chia nhóm, phân công nhiệm vụ cho các thành viên trong nhóm. + Vẽ phác thảo ý tưởng ra giấy. + Liệt kê các nguyên liệu cần thiết để làm mô hình. 3.3. Luyện tập – Thực hành Học sinh vận dụng kiến thức, kỹ năng để chế tạo sản phẩm. Cách thực hiện: Học sinh thực hành: + Cắt, dán, ghép các vật liệu đã chuẩn bị để tạo thành mô hình. + Trang trí, tô màu cho mô hình thêm sinh động. Giáo viên quan sát, hỗ trợ kỹ thuật cắt dán an toàn, góp ý về ý tưởng và kết cấu mô hình. 3.4. Vận dụng – Mở rộng Học sinh vận dụng sản phẩm vào hoạt động thực tế và phát triển năng lực thuyết trình, hợp tác. Cách thực hiện: Học sinh trưng bày sản phẩm. Đại diện từng nhóm/cá nhân giới thiệu về sản phẩm: + Tên mô hình. + Vật liệu sử dụng. + Cách làm và điều thú vị của sản phẩm. Giáo viên và học sinh nhận xét, tuyên dương sản phẩm sáng tạo, độc đáo. Một số sản phẩm mẫu giáo viên đã thực hiện
 Hình ảnh mô hình xe đạp Hình ảnh mô hình thuyền buồm
@@ -1052,6 +992,66 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>S002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Theo tôi hiểu “học tập qua trải nghiệm” trong giáo dục STEAM là phương pháp học tập mà học sinh được trực tiếp tham gia vào các hoạt động thực tế, khám phá kiến thức thông qua quan sát, thử nghiệm và giải quyết vấn đề bằng chính đôi tay và tư duy của mình. Đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ kiến thức một cách tự nhiên và lâu dài mà còn tăng tính sáng tạo và chủ động học tập của các em. Một ví dụ cụ thể tôi từng áp dụng trong giờ học Tự nhiên và xã hội là: Học sinh trồng cây từ hạt đậu. Các em được tự tay gieo hạt, tưới nước mỗi ngày, quan sát quá trình hạt nảy mầm, phát triển thành cây non. Từ đó, các em hiểu được chu trình sinh trưởng của thực vật một cách sinh động hơn rất nhiều so với việc chỉ xem hình trong sách. Sau khi được thực hiện hoạt động này, các em chủ động quan sát hơn, ghi nhận kết quả tốt hơn và vô cùng thích thú. Không chỉ vậy, các em còn hỗ trợ nhau thực hiện và trang trí sản phẩm của mình rất đẹp. Mỗi lần nhắc lại kiến thức này, các em đều có thể nhớ lại được hoạt động và trả lời chính xác nội dung bài học.</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3684895833333333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3297204733652475</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>chatgpt_4_1_v1_Q1</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3149741824440619</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3149741824440619</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>The response shows a modest degree of AI‑like characteristics. It is reasonably well‑structured with an opening statement, a main body, and an illustrative example, which is a typical pattern for AI‑generated answers. The phrasing is somewhat formal and contains a few repeated expressions that could be indicative of a templated style, but it is not overly rigid. The vocabulary and sentence length are fairly uniform, and the example of students planting beans is a generic scenario that many students might use, reflecting some peer similarity. The symbolic_score of 1.0 suggests a high density of formal markers, yet the overall content remains natural and context‑appropriate. Thus the likelihood of this being a template‑based AI answer is moderate, leading to a score of 0.4.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Theo tôi hiểu “học tập qua trải nghiệm” trong giáo dục STEAM là phương pháp học tập mà học sinh được trực tiếp tham gia vào các hoạt động thực tế, khám phá kiến thức thông qua quan sát, thử nghiệm và giải quyết vấn đề bằng chính đôi tay và tư duy của mình. Đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ kiến thức một cách tự nhiên và lâu dài mà còn tăng tính sáng tạo và chủ động học tập của các em. Một ví dụ cụ thể tôi từng áp dụng trong giờ học Tự nhiên và xã hội là: Học sinh trồng cây từ hạt đậu. Các em được tự tay gieo hạt, tưới nước mỗi ngày, quan sát quá trình hạt nảy mầm, phát triển thành cây non. Từ đó, các em hiểu được chu trình sinh trưởng của thực vật một cách sinh động hơn rất nhiều so với việc chỉ xem hình trong sách. Sau khi được thực hiện hoạt động này, các em chủ động quan sát hơn, ghi nhận kết quả tốt hơn và vô cùng thích thú. Không chỉ vậy, các em còn hỗ trợ nhau thực hiện và trang trí sản phẩm của mình rất đẹp. Mỗi lần nhắc lại kiến thức này, các em đều có thể nhớ lại được hoạt động và trả lời chính xác nội dung bài học.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Theo tôi hiểu “học tập qua trải nghiệm” trong giáo dục STEAM là phương pháp học tập mà học sinh được trực tiếp tham gia vào các hoạt động thực tế, khám phá kiến thức thông qua quan sát, thử nghiệm và giải quyết vấn đề bằng chính đôi tay và tư duy của mình. Đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ kiến thức một cách tự nhiên và lâu dài mà còn tăng tính sáng tạo và chủ động học tập của các em. Một ví dụ cụ thể tôi từng áp dụng trong giờ học Tự nhiên và xã hội là: Học sinh trồng cây từ hạt đậu. Các em được tự tay gieo hạt, tưới nước mỗi ngày, quan sát quá trình hạt nảy mầm, phát triển thành cây non. Từ đó, các em hiểu được chu trình sinh trưởng của thực vật một cách sinh động hơn rất nhiều so với việc chỉ xem hình trong sách. Sau khi được thực hiện hoạt động này, các em chủ động quan sát hơn, ghi nhận kết quả tốt hơn và vô cùng thích thú. Không chỉ vậy, các em còn hỗ trợ nhau thực hiện và trang trí sản phẩm của mình rất đẹp. Mỗi lần nhắc lại kiến thức này, các em đều có thể nhớ lại được hoạt động và trả lời chính xác nội dung bài học.</t>
+        </is>
+      </c>
+    </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
@@ -1096,11 +1096,11 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>The answer shows a moderate level of structure and repetition typical of template‑style writing, but the low AI similarity score (0.22) and low peer similarity (0.27) suggest it is not strongly derived from a known AI model or from other students. The symbolic_score of 1.00 indicates a high density of numeric and symbolic content, which can be common in AI‑generated instructional outlines, yet the overall language flow and lack of overt AI‑style phrasing keep the likelihood of a purely AI‑generated template moderate.</t>
+          <t>The response shows a relatively organized structure with clear subsections, but it contains many natural, student‑like elements (e.g., Vietnamese text, classroom context). It lacks the highly formulaic phrasing or perfect grammar typical of AI‑generated templates. The symbolic score of 1.0 indicates a high use of symbols and bullet points, a common feature in structured AI outputs, yet the overall wording and examples remain fairly typical and not strongly indicative of a template. The AI similarity score (0.22) and peer similarity (0.27) are modest, suggesting limited overlap with known AI or peer answers. Therefore, the likelihood of this being a template‑style AI response is moderate, around 0.35.</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1251,11 +1251,11 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>The response shows several AI‑style characteristics: a very clear three‑part structure (introduction, body, conclusion) that feels almost textbook‑like; frequent use of generic, positive phrasing such as "giúp kiến thức trở nên sống động" and "khắc sâu kiến thức"; a uniform sentence length and consistent vocabulary that lack the natural variation seen in human writing; and a highly templated example that mirrors common instructional content, which is also reflected in the moderate similarity scores (ai_similarity_score 0.35, peer_similarity_score 0.31). These factors together suggest a moderate likelihood that the answer was generated from an AI template rather than written entirely by a student.</t>
+          <t>The response exhibits several AI‑like characteristics. It follows a rigid structure with a clear introduction, body and conclusion, and the transition phrases feel formulaic. Frequent use of generic positive wording such as "kết quả thực tế" and “được thực hành” aligns with common AI templates. The sentence lengths and vocabulary are relatively uniform, lacking the natural variation seen in human writing. Moreover, the concrete example of the science activity is a classic, textbook‑style illustration that many students tend to replicate, which is reflected in the peer similarity score. While not entirely machine‑generated, these patterns suggest a strong AI influence, justifying a score of about 0.68.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1311,11 +1311,11 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>The response shows a clear, almost textbook structure with a distinct introduction, body, and conclusion, which is a hallmark of AI-generated templates. It uses several generic, positive‑bias phrases such as "đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ" that are frequently found in AI outputs. The sentence lengths and vocabulary choices are fairly uniform, lacking the natural variation typical of human writing. The example of planting beans is a common, textbook illustration that many students might use, indicating a somewhat stereotypical scenario. While the AI similarity score (0.37) and peer similarity score (0.31) are moderate, the symbolic score of 1.00 suggests a high presence of formal, symbolic patterns typical of AI-generated text. Overall, these factors point to a moderate likelihood that the answer is a templated AI output.</t>
+          <t>The response shows a modest degree of AI‑like characteristics. It is reasonably well‑structured with an opening statement, a main body, and an illustrative example, which is a typical pattern for AI‑generated answers. The phrasing is somewhat formal and contains a few repeated expressions that could be indicative of a templated style, but it is not overly rigid. The vocabulary and sentence length are fairly uniform, and the example of students planting beans is a generic scenario that many students might use, reflecting some peer similarity. The symbolic_score of 1.0 suggests a high density of formal markers, yet the overall content remains natural and context‑appropriate. Thus the likelihood of this being a template‑based AI answer is moderate, leading to a score of 0.4.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1373,11 +1373,11 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>The answer shows a moderate level of structure and repetition typical of template‑style writing, but the low AI similarity score (0.22) and low peer similarity (0.27) suggest it is not strongly derived from a known AI model or from other students. The symbolic_score of 1.00 indicates a high density of numeric and symbolic content, which can be common in AI‑generated instructional outlines, yet the overall language flow and lack of overt AI‑style phrasing keep the likelihood of a purely AI‑generated template moderate.</t>
+          <t>The response shows a relatively organized structure with clear subsections, but it contains many natural, student‑like elements (e.g., Vietnamese text, classroom context). It lacks the highly formulaic phrasing or perfect grammar typical of AI‑generated templates. The symbolic score of 1.0 indicates a high use of symbols and bullet points, a common feature in structured AI outputs, yet the overall wording and examples remain fairly typical and not strongly indicative of a template. The AI similarity score (0.22) and peer similarity (0.27) are modest, suggesting limited overlap with known AI or peer answers. Therefore, the likelihood of this being a template‑style AI response is moderate, around 0.35.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1437,11 +1437,11 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>構造化は序論・本論・結論が明確に区分されており、AIがよく用いるテンプレート的な構成に近い。定型表現として「được tôi thực hiện」「đúng với tinh thần giáo dục STEAM」など、ポジティブバイアスが散見される。文体は比較的均一で、語彙の幅が限定的である点もAIらしさを示唆する。具体例は一般的なクラス活動の説明であり、他の学生と類似度が低いものの、典型的な内容が多いため、完全に人間らしい創造性はやや不足している。総合的に見て、AI生成の可能性は中程度と判断。</t>
+          <t>回答は序論・本論・結論が明確に区分され、語彙が統一されているため構造化が強く、AIが好むテンプレート構成に近い。定型表現（「hình ảnh minh họa」「đúng với tinh thần giáo dục STEAM」など）が多用され、ポジティブバイアスが感じられる。文の長さや語彙の選び方に均一性があり、他の学生と類似した具体例（学級のルールや共有活動）が示されている点もAIがよく作る典型的な例と重なる。AI類似度が0.25、仲間間類似度が0.27で、完全に人間らしい独自性は低めだが、完全にAIであるとは言い切れないため、0.45という中程度のスコアと判断した。</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1497,11 +1497,11 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>The response shows a highly organized structure with clear headings, numbered sections, and bullet points, which is characteristic of AI-generated templates. The language contains several generic, positive‑bias phrases such as "Rèn kỹ năng tư duy logic, giải quyết vấn đề" and "Kết luận: …" that are commonly used by AI to signal completeness. The stylistic uniformity—consistent sentence length, repeated use of the same phrasing patterns, and a formal register—suggests a template rather than a personalized student voice. Additionally, the moderate similarity scores (ai_similarity_score 0.35, peer_similarity_score 0.37) indicate that while the content is not identical to known AI or peer answers, it shares enough common structure and wording to raise suspicion. The symbolic_score of 1.00 further reflects a high density of formatting symbols (numbers, bullets, colons), a hallmark of AI‑generated outlines. Overall, these factors point to a moderate to high likelihood that the answer was produced by a generative AI template.</t>
+          <t>The answer exhibits a very rigid, textbook‑like structure with clear headings (Kế hoạch dạy học, Các hoạt động chính, ...), repeated bullet points, and a conventional lesson‑plan format that is typical of AI‑generated templates. The language is uniformly formal and lacks stylistic variation—sentences are similar in length and word choice, which is another hallmark of AI output. The content itself is generic and aligns closely with common instructional examples, leading to a moderate similarity with other students' responses (peer_similarity_score 0.37) but a higher similarity to an AI model (ai_similarity_score 0.35). Additionally, the symbolic_score of 1.00 indicates a perfect match to known AI template patterns. Combined, these factors suggest a fairly high likelihood that the answer is a template‑style generation from an AI, hence a score of 0.68.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>構造化: 回答は序論・本論・結論が明確に区分されており、段落ごとに目的・手順・評価が整理されている点でAIが生成するテンプレート的な構成に近い。定型表現: 「Tôi cùng học sinh giải mã」「Mỗi nhóm sẽ được cung cấp」「Thảo luận và cải tiến」など、教育関連のAI回答で頻繁に見られるフレーズが散見される。文体の均一性: 文長はほぼ均一で、語彙も比較的限定的（例: "đề", "bài", "độ", "điểm"など）で、自然な人間の多様な表現よりも統一感が強い。具体例の典型的すぎる点: 3メートルからの落下という設定や、紙・段ボール・ゴムバンドなどの素材リストは多くの学生が採用しやすい標準的な例で、peer_similarity_score が 0.37 であることから他の回答と類似している可能性がある。総合すると、AIが生成したテンプレート的回答の可能性は中程度（約0.55）と判断できる。</t>
+          <t>The answer contains a very clear, modular structure with a distinct opening, body, and closing, which is typical of AI-generated templates. The phrasing includes frequent positive-bias expressions such as "đạt hiệu quả", "hợp lý", and "đầy sáng tạo", common in AI outputs. The style is uniform throughout: sentences are of similar length, and the vocabulary is repetitive, lacking the natural variation seen in human writing. Moreover, the examples and activity descriptions are generic and align closely with common lesson‑plan templates, reflected in the moderate AI and peer similarity scores (0.37 each) and a high symbolic score of 1.0 indicating strong adherence to formal writing patterns. Overall, these features suggest a moderate likelihood that the answer was produced by a generative AI.</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>The response shows a fairly rigid structure with a clear introduction, body, and conclusion, which is typical of AI-generated templates. It contains several generic, positive‑bias phrases such as "điều quan trọng không phải là làm đẹp" and "đừng sợ sai", which are common in AI outputs. The style is quite uniform: sentences are of similar length, and the vocabulary is repetitive, lacking the natural variation seen in human writing. Additionally, the examples provided (e.g., building a fish from cardboard) are generic and likely appear in many other students’ answers, as indicated by the moderate peer similarity score. While the AI similarity score is only 0.30, the high symbolic score and the overall pattern of the text suggest a moderate likelihood that this is a template‑based AI answer.</t>
+          <t>構造化が明確で序論・本論・結論が整いすぎている点、AIが好む定型表現（"…こうして、…" や "…に挑戦しよう" など）が頻出し、文体も同質的で長文のパターンが多い。さらに、具体例が一般的すぎて他の学生と類似しており、AIテンプレート的な特徴が強く出ているため、完全に人間らしいとは言い難い。</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1677,11 +1677,11 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>回答は序論・本論・結論が明確に区分され、同じような構造が繰り返されている点がAI的に見られます。さらに、"Đây là một vài ví dụ" や "mỗi bạn đều có thể có một cách làm khác" などの定型表現が多用され、ポジティブバイアスが強く感じられます。文体は比較的均一で、語彙の幅が狭く、文長もほぼ同じ傾向にあります。具体例として挙げられている内容は、他の学生の回答と重複しやすい典型的なものが多く、peer_similarity_score が 0.38 であることから、他者と似たパターンが見られます。これらの要素を総合すると、完全にAI生成ではないものの、テンプレート的なAI回答の可能性は中程度（約0.55）と判断されます。</t>
+          <t>構造化が非常に整っており、序論・本論・結論が明確に区切られている点がAI的。定型表現（"đây là một vài ví dụ", "mỗi bạn đều có thể..." 等）が頻出し、ポジティブバイアスの言い回しが多い。文体の均一性も高く、句読点や語彙の幅が限定的で文長がほぼ同一である。具体例はSTEAM教育における一般的な指導法を網羅しており、他の学生の回答と類似する要素が多いため、他者と重複しやすい。これらの特徴はAIが生成するテンプレート回答とよく合致する。</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1739,11 +1739,11 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>構造化がやや整っており、序論・本論・結論の区分が明確に示されている点はAIがよく用いるパターンに近い。定型表現（例：『Nâng cao kỹ năng tư duy thiết kế』、『Tái chế, bảo vệ môi trường』）やポジティブバイアスが散見され、文体の均一性も比較的高い。具体例は一般的な教材内容であり、他の学生と類似しやすい典型的な構成であるため、peer_similarity_scoreも中程度。総合すると、完全にAIっぽいわけではないが、テンプレート的な傾向があると判断し、0.42と評価した。</t>
+          <t>構造化がやや整っているものの、序論・本論・結論の明確な区分はなく、ほぼ列挙型の構成である。定型表現（"Khởi động"、"Khám phá"、"Luyện tập"など）はAI的なパターンが見られるが、同時に一般的な教材用語であるためポジティブバイアスは限定的。文体は均一で、長文が多いものの語彙は限定的で機械的な印象を与える。具体例（交通手段・動物のリスト）は典型的で、他学生と似た内容が多い。これらを総合すると、AI生成テンプレート的解答の可能性は中程度（0.45）と判断する。</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1803,11 +1803,11 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>The response is highly organized with distinct sections (introduction, activity, skills, cross‑disciplinary links) and uses bullet points, which is a hallmark of AI‑generated templates. The low AI similarity score (0.25) and moderate peer similarity (0.33) indicate that the content is not a direct copy of a known AI answer and shares some common ideas with other students, suggesting originality. The language is uniform—sentences are of similar length and vocabulary is repeated—supporting a template feel. However, the specific example of making a pencil case from recycled plastic bottles is a typical, widely used teaching scenario, not a unique AI invention. Overall, these factors point to a moderate likelihood of AI influence, hence a score of 0.45.</t>
+          <t>構造化: 回答は序論・本論・結論が極めて明確に区分され、章立てと箇条書きで整った構造を示しているため、AIのテンプレート化が疑われる。 定型表現: 例として「Mục tiêu: Học sinh hiểu được lợi ích…」「Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp; giải quyết vấn đề」など、AIがよく使用するフレーズやポジティブバイアス的表現が多い。 文体の均一性: 文章の長さや語彙は比較的一様で、専門用語や慣用表現が少なく、全体的にテンプレート的な文体が目立つ。 具体例の典型的すぎる点: 具体例は「Làm hộp bút từ chai nhựa cũ」という共通テーマで、他の学生の回答と類似度が0.33と示されているように、内容が典型的であるため、生成AIの一般的な例題に近い。 以上の点から、AIが書いた可能性は中程度に高いと判断し、スコアを0.6としました。</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
